--- a/documents/prototypes/data_analysis.xlsx
+++ b/documents/prototypes/data_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ola\Pulpit\studia\praca inzynierska\lesson_plan_data_analysis\documents\prototypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6F429F-4EFA-4C0F-8F9D-9E71968D575E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAFD38F-4D0C-4473-AFF7-F0FAA0441655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4CEEEB65-1C12-4BE0-93C4-ADB2FFF845DE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="103">
   <si>
     <t>Ilość</t>
   </si>
@@ -167,9 +167,6 @@
     <t>1 najrzadziej występujący dzień</t>
   </si>
   <si>
-    <t>Ogólne</t>
-  </si>
-  <si>
     <t>OKIENKA</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
     <t>Pozostałe</t>
   </si>
   <si>
-    <t>Wszystkie</t>
-  </si>
-  <si>
     <t>Udział w dniu</t>
   </si>
   <si>
@@ -320,9 +314,6 @@
     <t>Największa liczba wystąpień</t>
   </si>
   <si>
-    <t>Lista</t>
-  </si>
-  <si>
     <t>Jednostka jednego dnia w planie</t>
   </si>
   <si>
@@ -345,6 +336,18 @@
   </si>
   <si>
     <t>* zakładając, że nie uwzględnia się wielokrotności zajęć na 1 godz. lekcyjnej</t>
+  </si>
+  <si>
+    <t>Dni - Ogólne</t>
+  </si>
+  <si>
+    <t>Dni - Lista</t>
+  </si>
+  <si>
+    <t>Godziny - Ogólne</t>
+  </si>
+  <si>
+    <t>Godziny - Lista</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1606,26 +1609,119 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1654,9 +1750,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1669,149 +1786,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2151,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2685B308-FB1C-4972-8598-93AC3463B423}">
   <dimension ref="C4:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2180,618 +2176,587 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="177"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="177"/>
-      <c r="Q4" s="177"/>
-      <c r="R4" s="177"/>
-      <c r="S4" s="177"/>
-      <c r="T4" s="177"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
     </row>
     <row r="5" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="133" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="133" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="177"/>
-      <c r="L5" s="133" t="s">
-        <v>98</v>
-      </c>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="133" t="s">
-        <v>98</v>
-      </c>
-      <c r="R5" s="134"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="135"/>
+      <c r="C5" s="158" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="159"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="158" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="158" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="158" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="160"/>
     </row>
     <row r="6" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="133" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="134"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="133" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="178"/>
-      <c r="L6" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="135"/>
+      <c r="C6" s="158" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="159"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="158" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="158" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="159"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="137"/>
+      <c r="Q6" s="158" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" s="159"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="160"/>
       <c r="V6" s="94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="133" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="133" t="s">
+      <c r="C7" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="105"/>
+      <c r="G7" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="105"/>
+      <c r="L7" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="144" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C8" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="99">
+        <v>1</v>
+      </c>
+      <c r="E8" s="138">
+        <f>D8/$D$10</f>
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="105"/>
+      <c r="G8" s="82">
+        <v>1</v>
+      </c>
+      <c r="H8" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="67">
+        <v>17</v>
+      </c>
+      <c r="J8" s="84">
+        <f>I8/$I$13</f>
+        <v>0.19767441860465115</v>
+      </c>
+      <c r="K8" s="105"/>
+      <c r="L8" s="140" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="85">
+        <v>1</v>
+      </c>
+      <c r="N8" s="143">
+        <f>M8/M10</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O8" s="84">
+        <f>M8/($M$10*5)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="108">
+        <v>1</v>
+      </c>
+      <c r="R8" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="60">
+        <v>8</v>
+      </c>
+      <c r="T8" s="81">
+        <f>S8/$S$20</f>
+        <v>9.3023255813953487E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C9" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="155">
+        <v>5</v>
+      </c>
+      <c r="E9" s="156">
+        <f>D9/$D$10</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="112"/>
+      <c r="G9" s="86">
+        <v>2</v>
+      </c>
+      <c r="H9" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="13">
+        <v>20</v>
+      </c>
+      <c r="J9" s="81">
+        <f>I9/$I$13</f>
+        <v>0.23255813953488372</v>
+      </c>
+      <c r="K9" s="112"/>
+      <c r="L9" s="141" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="145">
+        <v>10</v>
+      </c>
+      <c r="N9" s="146">
+        <f>M9/$M$10</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O9" s="148">
+        <f>M9/($M$10*5)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="88">
+        <v>2</v>
+      </c>
+      <c r="R9" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="13">
+        <v>10</v>
+      </c>
+      <c r="T9" s="81">
+        <f>S9/$S$20</f>
+        <v>0.11627906976744186</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="149" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="178"/>
-      <c r="L7" s="133" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="178"/>
-      <c r="Q7" s="133" t="s">
-        <v>86</v>
-      </c>
-      <c r="R7" s="134"/>
-      <c r="S7" s="134"/>
-      <c r="T7" s="135"/>
-    </row>
-    <row r="8" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="178"/>
-      <c r="G8" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" s="178"/>
-      <c r="L8" s="181" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="187" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="P8" s="178"/>
-      <c r="Q8" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" s="79" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C9" s="110" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="99">
-        <v>1</v>
-      </c>
-      <c r="E9" s="180">
-        <f>D9/$D$11</f>
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="112"/>
-      <c r="G9" s="82">
-        <v>1</v>
-      </c>
-      <c r="H9" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="67">
-        <v>17</v>
-      </c>
-      <c r="J9" s="84">
-        <f>I9/$I$14</f>
-        <v>0.19767441860465115</v>
-      </c>
-      <c r="K9" s="112"/>
-      <c r="L9" s="182" t="s">
-        <v>100</v>
-      </c>
-      <c r="M9" s="85">
-        <v>1</v>
-      </c>
-      <c r="N9" s="186">
-        <f>M9/M11</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="O9" s="84">
-        <f>M9/($M$11*5)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="108">
-        <v>1</v>
-      </c>
-      <c r="R9" s="111" t="s">
-        <v>11</v>
-      </c>
-      <c r="S9" s="60">
-        <v>8</v>
-      </c>
-      <c r="T9" s="81">
-        <f t="shared" ref="T9:T20" si="0">S9/$S$21</f>
-        <v>9.3023255813953487E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C10" s="197" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="198">
+      <c r="D10" s="157">
         <v>5</v>
       </c>
-      <c r="E10" s="199">
-        <f>D10/$D$11</f>
-        <v>1</v>
+      <c r="E10" s="153" t="s">
+        <v>96</v>
       </c>
       <c r="F10" s="112"/>
-      <c r="G10" s="86">
-        <v>2</v>
+      <c r="G10" s="90">
+        <v>3</v>
       </c>
       <c r="H10" s="87" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="13">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J10" s="81">
-        <f>I10/$I$14</f>
-        <v>0.23255813953488372</v>
+        <f>I10/$I$13</f>
+        <v>0.1744186046511628</v>
       </c>
       <c r="K10" s="112"/>
-      <c r="L10" s="183" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="188">
-        <v>10</v>
-      </c>
-      <c r="N10" s="189">
-        <f>M10/$M$11</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="O10" s="191">
-        <f>M10/($M$11*5)</f>
-        <v>0.16666666666666666</v>
+      <c r="L10" s="149" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="150">
+        <v>12</v>
+      </c>
+      <c r="N10" s="151" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" s="152" t="s">
+        <v>96</v>
       </c>
       <c r="P10" s="112"/>
       <c r="Q10" s="88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R10" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="13">
         <v>12</v>
       </c>
-      <c r="S10" s="13">
-        <v>10</v>
-      </c>
       <c r="T10" s="81">
-        <f t="shared" si="0"/>
-        <v>0.11627906976744186</v>
-      </c>
-    </row>
-    <row r="11" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="192" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="200">
-        <v>5</v>
-      </c>
-      <c r="E11" s="196" t="s">
-        <v>99</v>
-      </c>
+        <f>S10/$S$20</f>
+        <v>0.13953488372093023</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.3">
       <c r="F11" s="113"/>
-      <c r="G11" s="90">
-        <v>3</v>
+      <c r="G11" s="86">
+        <v>4</v>
       </c>
       <c r="H11" s="87" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J11" s="81">
-        <f>I11/$I$14</f>
-        <v>0.1744186046511628</v>
+        <f>I11/$I$13</f>
+        <v>0.19767441860465115</v>
       </c>
       <c r="K11" s="112"/>
-      <c r="L11" s="192" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" s="193">
-        <v>12</v>
-      </c>
-      <c r="N11" s="194" t="s">
-        <v>99</v>
-      </c>
-      <c r="O11" s="195" t="s">
-        <v>99</v>
-      </c>
       <c r="P11" s="113"/>
       <c r="Q11" s="88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" s="89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S11" s="13">
         <v>12</v>
       </c>
       <c r="T11" s="81">
-        <f t="shared" si="0"/>
+        <f>S11/$S$20</f>
         <v>0.13953488372093023</v>
       </c>
     </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E12" s="112"/>
       <c r="F12" s="112"/>
-      <c r="G12" s="86">
-        <v>4</v>
-      </c>
-      <c r="H12" s="87" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="13">
+      <c r="G12" s="91">
+        <v>5</v>
+      </c>
+      <c r="H12" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="68">
         <v>17</v>
       </c>
-      <c r="J12" s="81">
-        <f>I12/$I$14</f>
+      <c r="J12" s="93">
+        <f>I12/$I$13</f>
         <v>0.19767441860465115</v>
       </c>
       <c r="K12" s="112"/>
-      <c r="P12" s="179"/>
       <c r="Q12" s="88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R12" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" s="13">
         <v>14</v>
       </c>
-      <c r="S12" s="13">
-        <v>12</v>
-      </c>
       <c r="T12" s="81">
-        <f t="shared" si="0"/>
-        <v>0.13953488372093023</v>
-      </c>
-    </row>
-    <row r="13" spans="3:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <f>S12/$S$20</f>
+        <v>0.16279069767441862</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="105"/>
       <c r="D13" s="105"/>
       <c r="E13" s="113"/>
       <c r="F13" s="113"/>
-      <c r="G13" s="91">
+      <c r="G13" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="96">
         <v>5</v>
       </c>
-      <c r="H13" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="68">
+      <c r="I13" s="62">
+        <f>SUM(I8:I12)</f>
+        <v>86</v>
+      </c>
+      <c r="J13" s="147" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="112"/>
+      <c r="L13" s="165" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="165"/>
+      <c r="N13" s="165"/>
+      <c r="O13" s="165"/>
+      <c r="Q13" s="88">
+        <v>6</v>
+      </c>
+      <c r="R13" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="13">
+        <v>12</v>
+      </c>
+      <c r="T13" s="81">
+        <f>S13/$S$20</f>
+        <v>0.13953488372093023</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="163" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="164"/>
+      <c r="I14" s="63">
+        <f>AVERAGE(I8:I12)</f>
+        <v>17.2</v>
+      </c>
+      <c r="J14" s="97">
+        <f>AVERAGE(J8:J12)</f>
+        <v>0.2</v>
+      </c>
+      <c r="K14" s="113"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="165"/>
+      <c r="Q14" s="88">
+        <v>7</v>
+      </c>
+      <c r="R14" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="93">
-        <f>I13/$I$14</f>
-        <v>0.19767441860465115</v>
-      </c>
-      <c r="K13" s="112"/>
-      <c r="L13" s="184" t="s">
-        <v>101</v>
-      </c>
-      <c r="M13" s="184"/>
-      <c r="N13" s="184"/>
-      <c r="O13" s="184"/>
-      <c r="P13" s="179"/>
-      <c r="Q13" s="88">
-        <v>5</v>
-      </c>
-      <c r="R13" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="S13" s="13">
-        <v>14</v>
-      </c>
-      <c r="T13" s="81">
-        <f t="shared" si="0"/>
-        <v>0.16279069767441862</v>
-      </c>
-    </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="G14" s="95" t="s">
+      <c r="S14" s="13">
+        <v>8</v>
+      </c>
+      <c r="T14" s="81">
+        <f>S14/$S$20</f>
+        <v>9.3023255813953487E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="K15" s="113"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="Q15" s="88">
+        <v>8</v>
+      </c>
+      <c r="R15" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="S15" s="13">
+        <v>6</v>
+      </c>
+      <c r="T15" s="81">
+        <f>S15/$S$20</f>
+        <v>6.9767441860465115E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="Q16" s="88">
+        <v>9</v>
+      </c>
+      <c r="R16" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="13">
+        <v>3</v>
+      </c>
+      <c r="T16" s="81">
+        <f>S16/$S$20</f>
+        <v>3.4883720930232558E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="12:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="142"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="142"/>
+      <c r="Q17" s="88">
+        <v>10</v>
+      </c>
+      <c r="R17" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="13">
+        <v>1</v>
+      </c>
+      <c r="T17" s="81">
+        <f>S17/$S$20</f>
+        <v>1.1627906976744186E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="12:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="142"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="142"/>
+      <c r="Q18" s="88">
+        <v>11</v>
+      </c>
+      <c r="R18" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="13">
+        <v>0</v>
+      </c>
+      <c r="T18" s="81">
+        <f>S18/$S$20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="12:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="Q19" s="100">
+        <v>12</v>
+      </c>
+      <c r="R19" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="61">
+        <v>0</v>
+      </c>
+      <c r="T19" s="81">
+        <f>S19/$S$20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="12:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="Q20" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="96">
-        <v>5</v>
-      </c>
-      <c r="I14" s="62">
-        <f>SUM(I9:I13)</f>
+      <c r="R20" s="96">
+        <v>12</v>
+      </c>
+      <c r="S20" s="62">
+        <f>SUM(S8:S19)</f>
         <v>86</v>
       </c>
-      <c r="J14" s="190" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14" s="113"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="184"/>
-      <c r="N14" s="184"/>
-      <c r="O14" s="184"/>
-      <c r="P14" s="179"/>
-      <c r="Q14" s="88">
-        <v>6</v>
-      </c>
-      <c r="R14" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="S14" s="13">
-        <v>12</v>
-      </c>
-      <c r="T14" s="81">
-        <f t="shared" si="0"/>
-        <v>0.13953488372093023</v>
-      </c>
-    </row>
-    <row r="15" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G15" s="136" t="s">
+      <c r="T20" s="147" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="12:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="142"/>
+      <c r="Q21" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="137"/>
-      <c r="I15" s="63">
-        <f>AVERAGE(I9:I13)</f>
-        <v>17.2</v>
-      </c>
-      <c r="J15" s="97">
-        <f>AVERAGE(J9:J13)</f>
-        <v>0.2</v>
-      </c>
-      <c r="K15" s="113"/>
-      <c r="L15" s="185"/>
-      <c r="M15" s="185"/>
-      <c r="N15" s="185"/>
-      <c r="O15" s="185"/>
-      <c r="P15" s="179"/>
-      <c r="Q15" s="88">
-        <v>7</v>
-      </c>
-      <c r="R15" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" s="13">
-        <v>8</v>
-      </c>
-      <c r="T15" s="81">
-        <f t="shared" si="0"/>
-        <v>9.3023255813953487E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="L16" s="185"/>
-      <c r="M16" s="185"/>
-      <c r="N16" s="185"/>
-      <c r="O16" s="185"/>
-      <c r="Q16" s="88">
-        <v>8</v>
-      </c>
-      <c r="R16" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="S16" s="13">
-        <v>6</v>
-      </c>
-      <c r="T16" s="81">
-        <f t="shared" si="0"/>
-        <v>6.9767441860465115E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="12:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="185"/>
-      <c r="M17" s="185"/>
-      <c r="N17" s="185"/>
-      <c r="O17" s="185"/>
-      <c r="Q17" s="88">
-        <v>9</v>
-      </c>
-      <c r="R17" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="S17" s="13">
-        <v>3</v>
-      </c>
-      <c r="T17" s="81">
-        <f t="shared" si="0"/>
-        <v>3.4883720930232558E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="12:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L18" s="185"/>
-      <c r="M18" s="185"/>
-      <c r="N18" s="185"/>
-      <c r="O18" s="185"/>
-      <c r="Q18" s="88">
-        <v>10</v>
-      </c>
-      <c r="R18" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="S18" s="13">
-        <v>1</v>
-      </c>
-      <c r="T18" s="81">
-        <f t="shared" si="0"/>
-        <v>1.1627906976744186E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="12:20" x14ac:dyDescent="0.3">
-      <c r="L19" s="185"/>
-      <c r="M19" s="185"/>
-      <c r="N19" s="185"/>
-      <c r="O19" s="185"/>
-      <c r="Q19" s="88">
-        <v>11</v>
-      </c>
-      <c r="R19" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="S19" s="13">
-        <v>0</v>
-      </c>
-      <c r="T19" s="81">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="12:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L20" s="185"/>
-      <c r="M20" s="185"/>
-      <c r="N20" s="185"/>
-      <c r="O20" s="185"/>
-      <c r="Q20" s="100">
-        <v>12</v>
-      </c>
-      <c r="R20" s="114" t="s">
-        <v>22</v>
-      </c>
-      <c r="S20" s="61">
-        <v>0</v>
-      </c>
-      <c r="T20" s="81">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="12:20" x14ac:dyDescent="0.3">
-      <c r="L21" s="185"/>
-      <c r="M21" s="185"/>
-      <c r="N21" s="185"/>
-      <c r="O21" s="185"/>
-      <c r="Q21" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="R21" s="96">
-        <v>12</v>
-      </c>
-      <c r="S21" s="62">
-        <f>SUM(S9:S20)</f>
-        <v>86</v>
-      </c>
-      <c r="T21" s="190" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="12:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L22" s="185"/>
-      <c r="M22" s="185"/>
-      <c r="N22" s="185"/>
-      <c r="O22" s="185"/>
-      <c r="Q22" s="131" t="s">
-        <v>28</v>
-      </c>
-      <c r="R22" s="132"/>
-      <c r="S22" s="63">
-        <f>AVERAGE(S9:S20)</f>
+      <c r="R21" s="162"/>
+      <c r="S21" s="63">
+        <f>AVERAGE(S8:S19)</f>
         <v>7.166666666666667</v>
       </c>
-      <c r="T22" s="97">
-        <f>AVERAGE(T9:T20)</f>
+      <c r="T21" s="97">
+        <f>AVERAGE(T8:T19)</f>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
+    <row r="22" spans="12:20" x14ac:dyDescent="0.3">
+      <c r="L22" s="142"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="142"/>
+      <c r="O22" s="142"/>
+    </row>
     <row r="23" spans="12:20" x14ac:dyDescent="0.3">
-      <c r="L23" s="185"/>
-      <c r="M23" s="185"/>
-      <c r="N23" s="185"/>
-      <c r="O23" s="185"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="142"/>
+      <c r="N23" s="142"/>
+      <c r="O23" s="142"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="L7:O7"/>
+  <mergeCells count="11">
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="L13:O14"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="L13:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2830,89 +2795,89 @@
   <sheetData>
     <row r="3" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="138" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="138" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="138" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="172"/>
-      <c r="P4" s="138" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="140"/>
+      <c r="C4" s="169" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="170"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="169" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="170"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="169" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="169" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="170"/>
+      <c r="S4" s="171"/>
       <c r="T4" s="22"/>
     </row>
     <row r="5" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="138" t="s">
+      <c r="D5" s="170"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="139"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="175" t="s">
+      <c r="H5" s="170"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="174"/>
-      <c r="O5" s="172"/>
-      <c r="P5" s="175" t="s">
+      <c r="L5" s="167"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="174"/>
+      <c r="Q5" s="167"/>
+      <c r="R5" s="167"/>
+      <c r="S5" s="168"/>
       <c r="T5" s="22"/>
     </row>
     <row r="6" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="145" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="145" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="146"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="171"/>
-      <c r="K6" s="138" t="s">
+      <c r="C6" s="176" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="177"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="176" t="s">
         <v>89</v>
       </c>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="140"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="138" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="140"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="169" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
+      <c r="N6" s="171"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="169" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="170"/>
+      <c r="R6" s="170"/>
+      <c r="S6" s="171"/>
       <c r="U6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2923,9 +2888,9 @@
         <v>0</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="171"/>
+        <v>86</v>
+      </c>
+      <c r="F7" s="136"/>
       <c r="G7" s="69" t="s">
         <v>10</v>
       </c>
@@ -2933,9 +2898,9 @@
         <v>0</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" s="171"/>
+        <v>86</v>
+      </c>
+      <c r="J7" s="136"/>
       <c r="K7" s="15" t="s">
         <v>26</v>
       </c>
@@ -2946,9 +2911,9 @@
         <v>0</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="O7" s="171"/>
+        <v>86</v>
+      </c>
+      <c r="O7" s="136"/>
       <c r="P7" s="15" t="s">
         <v>26</v>
       </c>
@@ -2959,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="107" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2973,7 +2938,7 @@
         <f>D8/86</f>
         <v>0.23255813953488372</v>
       </c>
-      <c r="F8" s="168"/>
+      <c r="F8" s="133"/>
       <c r="G8" s="73" t="s">
         <v>3</v>
       </c>
@@ -2984,7 +2949,7 @@
         <f>H8/86</f>
         <v>0.1744186046511628</v>
       </c>
-      <c r="J8" s="168"/>
+      <c r="J8" s="133"/>
       <c r="K8" s="101">
         <v>5</v>
       </c>
@@ -2995,10 +2960,10 @@
         <v>14</v>
       </c>
       <c r="N8" s="18">
-        <f>M8/86</f>
+        <f t="shared" ref="N8:N15" si="0">M8/86</f>
         <v>0.16279069767441862</v>
       </c>
-      <c r="O8" s="168"/>
+      <c r="O8" s="133"/>
       <c r="P8" s="101">
         <v>11</v>
       </c>
@@ -3025,7 +2990,7 @@
         <f>D9/86</f>
         <v>0.23255813953488372</v>
       </c>
-      <c r="F9" s="169"/>
+      <c r="F9" s="134"/>
       <c r="G9" s="74" t="s">
         <v>35</v>
       </c>
@@ -3037,7 +3002,7 @@
         <f>H9/86</f>
         <v>0.1744186046511628</v>
       </c>
-      <c r="J9" s="169"/>
+      <c r="J9" s="134"/>
       <c r="K9" s="14">
         <v>3</v>
       </c>
@@ -3047,11 +3012,11 @@
       <c r="M9" s="12">
         <v>12</v>
       </c>
-      <c r="N9" s="166">
-        <f>M9/86</f>
+      <c r="N9" s="131">
+        <f t="shared" si="0"/>
         <v>0.13953488372093023</v>
       </c>
-      <c r="O9" s="168"/>
+      <c r="O9" s="133"/>
       <c r="P9" s="14">
         <v>12</v>
       </c>
@@ -3062,13 +3027,13 @@
         <v>0</v>
       </c>
       <c r="S9" s="109">
-        <f t="shared" ref="S9:S14" si="0">R9/86</f>
+        <f t="shared" ref="S9:S14" si="1">R9/86</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="129">
         <f>86-D9</f>
@@ -3078,9 +3043,9 @@
         <f>100%-E9</f>
         <v>0.76744186046511631</v>
       </c>
-      <c r="F10" s="170"/>
+      <c r="F10" s="135"/>
       <c r="G10" s="128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="129">
         <f>86-H9</f>
@@ -3090,7 +3055,7 @@
         <f>100%-I9</f>
         <v>0.82558139534883723</v>
       </c>
-      <c r="J10" s="170"/>
+      <c r="J10" s="135"/>
       <c r="K10" s="14">
         <v>4</v>
       </c>
@@ -3100,11 +3065,11 @@
       <c r="M10" s="12">
         <v>12</v>
       </c>
-      <c r="N10" s="166">
-        <f>M10/86</f>
+      <c r="N10" s="131">
+        <f t="shared" si="0"/>
         <v>0.13953488372093023</v>
       </c>
-      <c r="O10" s="168"/>
+      <c r="O10" s="133"/>
       <c r="P10" s="14">
         <v>10</v>
       </c>
@@ -3115,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1627906976744186E-2</v>
       </c>
     </row>
@@ -3137,11 +3102,11 @@
       <c r="M11" s="12">
         <v>12</v>
       </c>
-      <c r="N11" s="166">
-        <f>M11/86</f>
+      <c r="N11" s="131">
+        <f t="shared" si="0"/>
         <v>0.13953488372093023</v>
       </c>
-      <c r="O11" s="168"/>
+      <c r="O11" s="133"/>
       <c r="P11" s="17">
         <v>9</v>
       </c>
@@ -3152,7 +3117,7 @@
         <v>3</v>
       </c>
       <c r="S11" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4883720930232558E-2</v>
       </c>
     </row>
@@ -3174,11 +3139,11 @@
       <c r="M12" s="72">
         <v>10</v>
       </c>
-      <c r="N12" s="167">
-        <f>M12/86</f>
+      <c r="N12" s="132">
+        <f t="shared" si="0"/>
         <v>0.11627906976744186</v>
       </c>
-      <c r="O12" s="168"/>
+      <c r="O12" s="133"/>
       <c r="P12" s="30" t="s">
         <v>35</v>
       </c>
@@ -3190,7 +3155,7 @@
         <v>4</v>
       </c>
       <c r="S12" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6511627906976744E-2</v>
       </c>
     </row>
@@ -3214,20 +3179,20 @@
         <v>60</v>
       </c>
       <c r="N13" s="118">
-        <f>M13/86</f>
+        <f t="shared" si="0"/>
         <v>0.69767441860465118</v>
       </c>
-      <c r="O13" s="168"/>
-      <c r="P13" s="143" t="s">
+      <c r="O13" s="133"/>
+      <c r="P13" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" s="144"/>
+      <c r="Q13" s="175"/>
       <c r="R13" s="125">
         <f>AVERAGE(R8:R11)</f>
         <v>1</v>
       </c>
       <c r="S13" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1627906976744186E-2</v>
       </c>
     </row>
@@ -3240,21 +3205,21 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="141" t="s">
+      <c r="K14" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="142"/>
+      <c r="L14" s="173"/>
       <c r="M14" s="63">
         <f>AVERAGE(M8:M12)</f>
         <v>12</v>
       </c>
       <c r="N14" s="119">
-        <f>M14/86</f>
+        <f t="shared" si="0"/>
         <v>0.13953488372093023</v>
       </c>
-      <c r="O14" s="168"/>
+      <c r="O14" s="133"/>
       <c r="P14" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="122">
         <f>12-Q12</f>
@@ -3265,7 +3230,7 @@
         <v>82</v>
       </c>
       <c r="S14" s="123">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95348837209302328</v>
       </c>
     </row>
@@ -3279,7 +3244,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L15" s="76">
         <f>12-L13</f>
@@ -3290,10 +3255,10 @@
         <v>26</v>
       </c>
       <c r="N15" s="123">
-        <f>M15/86</f>
+        <f t="shared" si="0"/>
         <v>0.30232558139534882</v>
       </c>
-      <c r="O15" s="168"/>
+      <c r="O15" s="133"/>
       <c r="P15" s="98"/>
       <c r="Q15" s="98"/>
       <c r="R15" s="116"/>
@@ -3301,6 +3266,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="K5:N5"/>
     <mergeCell ref="P5:S5"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="G5:I5"/>
@@ -3310,11 +3280,6 @@
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="K5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3416,129 +3381,129 @@
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
-      <c r="D2" s="156" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="147" t="s">
+      <c r="D2" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="152"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="152" t="s">
+      <c r="H2" s="185"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="147" t="s">
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="152"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="152" t="s">
+      <c r="N2" s="185"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="138" t="s">
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="140"/>
+      <c r="T2" s="171"/>
       <c r="U2" s="35"/>
       <c r="V2" s="35"/>
       <c r="W2" s="35"/>
-      <c r="X2" s="147" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="147" t="s">
+      <c r="X2" s="184" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="148"/>
-      <c r="AD2" s="152" t="s">
+      <c r="AB2" s="185"/>
+      <c r="AC2" s="186"/>
+      <c r="AD2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="147" t="s">
+      <c r="AE2" s="185"/>
+      <c r="AF2" s="185"/>
+      <c r="AG2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="152" t="s">
+      <c r="AH2" s="185"/>
+      <c r="AI2" s="186"/>
+      <c r="AJ2" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="152"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="138" t="s">
+      <c r="AK2" s="185"/>
+      <c r="AL2" s="186"/>
+      <c r="AM2" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="AN2" s="140"/>
+      <c r="AN2" s="171"/>
       <c r="AP2" s="35"/>
       <c r="AQ2" s="35"/>
-      <c r="AR2" s="147" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="152"/>
-      <c r="AT2" s="148"/>
-      <c r="AU2" s="147" t="s">
+      <c r="AR2" s="184" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="185"/>
+      <c r="AT2" s="186"/>
+      <c r="AU2" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="152"/>
-      <c r="AW2" s="148"/>
-      <c r="AX2" s="147" t="s">
+      <c r="AV2" s="185"/>
+      <c r="AW2" s="186"/>
+      <c r="AX2" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="AY2" s="152"/>
-      <c r="AZ2" s="148"/>
-      <c r="BA2" s="147" t="s">
+      <c r="AY2" s="185"/>
+      <c r="AZ2" s="186"/>
+      <c r="BA2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="BB2" s="152"/>
-      <c r="BC2" s="148"/>
-      <c r="BD2" s="147" t="s">
+      <c r="BB2" s="185"/>
+      <c r="BC2" s="186"/>
+      <c r="BD2" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="BE2" s="152"/>
-      <c r="BF2" s="148"/>
-      <c r="BG2" s="138" t="s">
+      <c r="BE2" s="185"/>
+      <c r="BF2" s="186"/>
+      <c r="BG2" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="BH2" s="140"/>
+      <c r="BH2" s="171"/>
       <c r="BJ2" s="35"/>
       <c r="BK2" s="35"/>
-      <c r="BL2" s="147" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM2" s="152"/>
-      <c r="BN2" s="148"/>
-      <c r="BO2" s="147" t="s">
+      <c r="BL2" s="184" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="185"/>
+      <c r="BN2" s="186"/>
+      <c r="BO2" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="BP2" s="152"/>
-      <c r="BQ2" s="148"/>
-      <c r="BR2" s="147" t="s">
+      <c r="BP2" s="185"/>
+      <c r="BQ2" s="186"/>
+      <c r="BR2" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="BS2" s="152"/>
-      <c r="BT2" s="148"/>
-      <c r="BU2" s="147" t="s">
+      <c r="BS2" s="185"/>
+      <c r="BT2" s="186"/>
+      <c r="BU2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="BV2" s="152"/>
-      <c r="BW2" s="148"/>
-      <c r="BX2" s="147" t="s">
+      <c r="BV2" s="185"/>
+      <c r="BW2" s="186"/>
+      <c r="BX2" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="152"/>
-      <c r="BZ2" s="148"/>
-      <c r="CA2" s="147" t="s">
+      <c r="BY2" s="185"/>
+      <c r="BZ2" s="186"/>
+      <c r="CA2" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="CB2" s="148"/>
+      <c r="CB2" s="186"/>
     </row>
     <row r="3" spans="1:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="35"/>
@@ -3548,52 +3513,52 @@
         <v>0</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J3" s="36" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M3" s="36" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P3" s="36" t="s">
         <v>0</v>
       </c>
       <c r="Q3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S3" s="53" t="s">
         <v>0</v>
       </c>
       <c r="T3" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U3" s="35"/>
       <c r="V3" s="35"/>
@@ -3602,52 +3567,52 @@
         <v>0</v>
       </c>
       <c r="Y3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AA3" s="36" t="s">
         <v>0</v>
       </c>
       <c r="AB3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AC3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD3" s="36" t="s">
         <v>0</v>
       </c>
       <c r="AE3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AF3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AG3" s="36" t="s">
         <v>0</v>
       </c>
       <c r="AH3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AI3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AJ3" s="36" t="s">
         <v>0</v>
       </c>
       <c r="AK3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AL3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AM3" s="53" t="s">
         <v>0</v>
       </c>
       <c r="AN3" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AO3" s="35"/>
       <c r="AP3" s="35"/>
@@ -3656,52 +3621,52 @@
         <v>0</v>
       </c>
       <c r="AS3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AT3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AU3" s="36" t="s">
         <v>0</v>
       </c>
       <c r="AV3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AW3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AX3" s="36" t="s">
         <v>0</v>
       </c>
       <c r="AY3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AZ3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BA3" s="36" t="s">
         <v>0</v>
       </c>
       <c r="BB3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BC3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BD3" s="36" t="s">
         <v>0</v>
       </c>
       <c r="BE3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BF3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BG3" s="53" t="s">
         <v>0</v>
       </c>
       <c r="BH3" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BI3" s="35"/>
       <c r="BJ3" s="35"/>
@@ -3710,61 +3675,61 @@
         <v>0</v>
       </c>
       <c r="BM3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BN3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BO3" s="36" t="s">
         <v>0</v>
       </c>
       <c r="BP3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BQ3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BR3" s="36" t="s">
         <v>0</v>
       </c>
       <c r="BS3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BT3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BU3" s="36" t="s">
         <v>0</v>
       </c>
       <c r="BV3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BW3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BX3" s="36" t="s">
         <v>0</v>
       </c>
       <c r="BY3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BZ3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="CA3" s="53" t="s">
         <v>0</v>
       </c>
       <c r="CB3" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="179" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>45</v>
       </c>
       <c r="D4" s="26">
         <v>0</v>
@@ -3829,11 +3794,11 @@
         <v>9.3023255813953487E-2</v>
       </c>
       <c r="U4" s="35"/>
-      <c r="V4" s="153" t="s">
+      <c r="V4" s="179" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="37" t="s">
         <v>46</v>
-      </c>
-      <c r="W4" s="37" t="s">
-        <v>47</v>
       </c>
       <c r="X4" s="26">
         <v>7</v>
@@ -3897,11 +3862,11 @@
         <f>AM4/AM$13</f>
         <v>0.22093023255813954</v>
       </c>
-      <c r="AP4" s="149" t="s">
+      <c r="AP4" s="187" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ4" s="37" t="s">
         <v>48</v>
-      </c>
-      <c r="AQ4" s="37" t="s">
-        <v>49</v>
       </c>
       <c r="AR4" s="35">
         <v>6</v>
@@ -3965,8 +3930,8 @@
         <f>BG4/BG$8</f>
         <v>0.30232558139534882</v>
       </c>
-      <c r="BJ4" s="149" t="s">
-        <v>50</v>
+      <c r="BJ4" s="187" t="s">
+        <v>49</v>
       </c>
       <c r="BK4" s="37">
         <v>6</v>
@@ -4036,9 +4001,9 @@
     </row>
     <row r="5" spans="1:80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
-      <c r="B5" s="154"/>
+      <c r="B5" s="180"/>
       <c r="C5" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="35">
         <v>1</v>
@@ -4103,9 +4068,9 @@
         <v>2.3255813953488372E-2</v>
       </c>
       <c r="U5" s="35"/>
-      <c r="V5" s="154"/>
+      <c r="V5" s="180"/>
       <c r="W5" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X5" s="35">
         <v>1</v>
@@ -4169,9 +4134,9 @@
         <f>AM5/AM$13</f>
         <v>0.10465116279069768</v>
       </c>
-      <c r="AP5" s="150"/>
+      <c r="AP5" s="188"/>
       <c r="AQ5" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AR5" s="35">
         <v>4</v>
@@ -4235,7 +4200,7 @@
         <f>BG5/BG$8</f>
         <v>0.30232558139534882</v>
       </c>
-      <c r="BJ5" s="150"/>
+      <c r="BJ5" s="188"/>
       <c r="BK5" s="41">
         <v>11</v>
       </c>
@@ -4304,9 +4269,9 @@
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
-      <c r="B6" s="154"/>
+      <c r="B6" s="180"/>
       <c r="C6" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="35">
         <v>1</v>
@@ -4371,9 +4336,9 @@
         <v>4.6511627906976744E-2</v>
       </c>
       <c r="U6" s="35"/>
-      <c r="V6" s="154"/>
+      <c r="V6" s="180"/>
       <c r="W6" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X6" s="35">
         <v>2</v>
@@ -4437,9 +4402,9 @@
         <f t="shared" ref="AN6:AN13" si="32">AM6/AM$13</f>
         <v>8.1395348837209308E-2</v>
       </c>
-      <c r="AP6" s="150"/>
+      <c r="AP6" s="188"/>
       <c r="AQ6" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AR6" s="35">
         <v>5</v>
@@ -4503,7 +4468,7 @@
         <f>BG6/BG$8</f>
         <v>0.30232558139534882</v>
       </c>
-      <c r="BJ6" s="150"/>
+      <c r="BJ6" s="188"/>
       <c r="BK6" s="41">
         <v>102</v>
       </c>
@@ -4572,9 +4537,9 @@
     </row>
     <row r="7" spans="1:80" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35"/>
-      <c r="B7" s="154"/>
+      <c r="B7" s="180"/>
       <c r="C7" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="35">
         <v>0</v>
@@ -4639,9 +4604,9 @@
         <v>4.6511627906976744E-2</v>
       </c>
       <c r="U7" s="35"/>
-      <c r="V7" s="154"/>
+      <c r="V7" s="180"/>
       <c r="W7" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X7" s="35">
         <v>0</v>
@@ -4705,9 +4670,9 @@
         <f t="shared" si="32"/>
         <v>0.15116279069767441</v>
       </c>
-      <c r="AP7" s="151"/>
+      <c r="AP7" s="189"/>
       <c r="AQ7" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AR7" s="35">
         <v>2</v>
@@ -4771,7 +4736,7 @@
         <f>BG7/BG$8</f>
         <v>9.3023255813953487E-2</v>
       </c>
-      <c r="BJ7" s="150"/>
+      <c r="BJ7" s="188"/>
       <c r="BK7" s="41">
         <v>115</v>
       </c>
@@ -4840,9 +4805,9 @@
     </row>
     <row r="8" spans="1:80" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35"/>
-      <c r="B8" s="154"/>
+      <c r="B8" s="180"/>
       <c r="C8" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="35">
         <v>2</v>
@@ -4907,9 +4872,9 @@
         <v>4.6511627906976744E-2</v>
       </c>
       <c r="U8" s="35"/>
-      <c r="V8" s="154"/>
+      <c r="V8" s="180"/>
       <c r="W8" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X8" s="35">
         <v>2</v>
@@ -5041,7 +5006,7 @@
         <f>BG8/BG$8</f>
         <v>1</v>
       </c>
-      <c r="BJ8" s="150"/>
+      <c r="BJ8" s="188"/>
       <c r="BK8" s="41">
         <v>116</v>
       </c>
@@ -5110,9 +5075,9 @@
     </row>
     <row r="9" spans="1:80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35"/>
-      <c r="B9" s="154"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="35">
         <v>0</v>
@@ -5177,9 +5142,9 @@
         <v>4.6511627906976744E-2</v>
       </c>
       <c r="U9" s="35"/>
-      <c r="V9" s="154"/>
+      <c r="V9" s="180"/>
       <c r="W9" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X9" s="35">
         <v>2</v>
@@ -5263,7 +5228,7 @@
       <c r="BG9" s="35"/>
       <c r="BH9" s="51"/>
       <c r="BI9" s="35"/>
-      <c r="BJ9" s="150"/>
+      <c r="BJ9" s="188"/>
       <c r="BK9" s="41">
         <v>202</v>
       </c>
@@ -5332,9 +5297,9 @@
     </row>
     <row r="10" spans="1:80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35"/>
-      <c r="B10" s="154"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="35">
         <v>0</v>
@@ -5399,9 +5364,9 @@
         <v>2.3255813953488372E-2</v>
       </c>
       <c r="U10" s="35"/>
-      <c r="V10" s="154"/>
+      <c r="V10" s="180"/>
       <c r="W10" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X10" s="35">
         <v>3</v>
@@ -5485,7 +5450,7 @@
       <c r="BG10" s="35"/>
       <c r="BH10" s="51"/>
       <c r="BI10" s="35"/>
-      <c r="BJ10" s="150"/>
+      <c r="BJ10" s="188"/>
       <c r="BK10" s="41">
         <v>207</v>
       </c>
@@ -5554,9 +5519,9 @@
     </row>
     <row r="11" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
-      <c r="B11" s="154"/>
+      <c r="B11" s="180"/>
       <c r="C11" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="35">
         <v>2</v>
@@ -5621,9 +5586,9 @@
         <v>9.3023255813953487E-2</v>
       </c>
       <c r="U11" s="35"/>
-      <c r="V11" s="154"/>
+      <c r="V11" s="180"/>
       <c r="W11" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X11" s="35">
         <v>0</v>
@@ -5707,7 +5672,7 @@
       <c r="BG11" s="35"/>
       <c r="BH11" s="51"/>
       <c r="BI11" s="35"/>
-      <c r="BJ11" s="150"/>
+      <c r="BJ11" s="188"/>
       <c r="BK11" s="41">
         <v>208</v>
       </c>
@@ -5776,9 +5741,9 @@
     </row>
     <row r="12" spans="1:80" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35"/>
-      <c r="B12" s="154"/>
+      <c r="B12" s="180"/>
       <c r="C12" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="35">
         <v>1</v>
@@ -5843,9 +5808,9 @@
         <v>2.3255813953488372E-2</v>
       </c>
       <c r="U12" s="35"/>
-      <c r="V12" s="155"/>
+      <c r="V12" s="181"/>
       <c r="W12" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X12" s="35">
         <v>0</v>
@@ -5929,7 +5894,7 @@
       <c r="BG12" s="35"/>
       <c r="BH12" s="51"/>
       <c r="BI12" s="35"/>
-      <c r="BJ12" s="150"/>
+      <c r="BJ12" s="188"/>
       <c r="BK12" s="41">
         <v>210</v>
       </c>
@@ -5998,9 +5963,9 @@
     </row>
     <row r="13" spans="1:80" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35"/>
-      <c r="B13" s="154"/>
+      <c r="B13" s="180"/>
       <c r="C13" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="35">
         <v>0</v>
@@ -6154,9 +6119,9 @@
       <c r="BG13" s="35"/>
       <c r="BH13" s="51"/>
       <c r="BI13" s="35"/>
-      <c r="BJ13" s="151"/>
+      <c r="BJ13" s="189"/>
       <c r="BK13" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BL13" s="42">
         <v>0</v>
@@ -6223,9 +6188,9 @@
     </row>
     <row r="14" spans="1:80" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35"/>
-      <c r="B14" s="154"/>
+      <c r="B14" s="180"/>
       <c r="C14" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="35">
         <v>0</v>
@@ -6401,9 +6366,9 @@
     </row>
     <row r="15" spans="1:80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35"/>
-      <c r="B15" s="154"/>
+      <c r="B15" s="180"/>
       <c r="C15" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="35">
         <v>0</v>
@@ -6529,9 +6494,9 @@
     </row>
     <row r="16" spans="1:80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35"/>
-      <c r="B16" s="154"/>
+      <c r="B16" s="180"/>
       <c r="C16" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="35">
         <v>1</v>
@@ -6657,9 +6622,9 @@
     </row>
     <row r="17" spans="1:79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
-      <c r="B17" s="154"/>
+      <c r="B17" s="180"/>
       <c r="C17" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="35">
         <v>1</v>
@@ -6785,9 +6750,9 @@
     </row>
     <row r="18" spans="1:79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="35"/>
-      <c r="B18" s="154"/>
+      <c r="B18" s="180"/>
       <c r="C18" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="35">
         <v>2</v>
@@ -6913,9 +6878,9 @@
     </row>
     <row r="19" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
-      <c r="B19" s="154"/>
+      <c r="B19" s="180"/>
       <c r="C19" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="35">
         <v>2</v>
@@ -7041,9 +7006,9 @@
     </row>
     <row r="20" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
-      <c r="B20" s="154"/>
+      <c r="B20" s="180"/>
       <c r="C20" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="35">
         <v>2</v>
@@ -7169,9 +7134,9 @@
     </row>
     <row r="21" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
-      <c r="B21" s="154"/>
+      <c r="B21" s="180"/>
       <c r="C21" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="35">
         <v>2</v>
@@ -7297,9 +7262,9 @@
     </row>
     <row r="22" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
-      <c r="B22" s="154"/>
+      <c r="B22" s="180"/>
       <c r="C22" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" s="35">
         <v>0</v>
@@ -7425,9 +7390,9 @@
     </row>
     <row r="23" spans="1:79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="35"/>
-      <c r="B23" s="154"/>
+      <c r="B23" s="180"/>
       <c r="C23" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" s="35">
         <v>0</v>
@@ -7553,9 +7518,9 @@
     </row>
     <row r="24" spans="1:79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35"/>
-      <c r="B24" s="154"/>
+      <c r="B24" s="180"/>
       <c r="C24" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="35">
         <v>0</v>
@@ -7681,9 +7646,9 @@
     </row>
     <row r="25" spans="1:79" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="35"/>
-      <c r="B25" s="155"/>
+      <c r="B25" s="181"/>
       <c r="C25" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="35">
         <v>0</v>
@@ -7939,6 +7904,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="CA2:CB2"/>
+    <mergeCell ref="BJ4:BJ13"/>
+    <mergeCell ref="AP4:AP7"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="BO2:BQ2"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="BX2:BZ2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BL2:BN2"/>
+    <mergeCell ref="BU2:BW2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BD2:BF2"/>
     <mergeCell ref="B4:B25"/>
     <mergeCell ref="V4:V12"/>
     <mergeCell ref="D2:F2"/>
@@ -7947,26 +7932,6 @@
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:T2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BL2:BN2"/>
-    <mergeCell ref="BU2:BW2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BD2:BF2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="CA2:CB2"/>
-    <mergeCell ref="BJ4:BJ13"/>
-    <mergeCell ref="AP4:AP7"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="BO2:BQ2"/>
-    <mergeCell ref="BR2:BT2"/>
-    <mergeCell ref="BX2:BZ2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8015,76 +7980,76 @@
   </cols>
   <sheetData>
     <row r="3" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="N3" s="162" t="s">
+      <c r="N3" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="R3" s="162" t="s">
+      <c r="O3" s="190"/>
+      <c r="P3" s="190"/>
+      <c r="R3" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="162"/>
-      <c r="T3" s="162"/>
+      <c r="S3" s="190"/>
+      <c r="T3" s="190"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="162" t="s">
+      <c r="V3" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="162"/>
-      <c r="X3" s="162"/>
-      <c r="Y3" s="162"/>
-      <c r="AA3" s="162" t="s">
+      <c r="W3" s="190"/>
+      <c r="X3" s="190"/>
+      <c r="Y3" s="190"/>
+      <c r="AA3" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="162"/>
-      <c r="AE3" s="162" t="s">
+      <c r="AB3" s="190"/>
+      <c r="AC3" s="190"/>
+      <c r="AE3" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="AF3" s="162"/>
-      <c r="AG3" s="162"/>
-      <c r="AH3" s="162"/>
-      <c r="AJ3" s="162" t="s">
+      <c r="AF3" s="190"/>
+      <c r="AG3" s="190"/>
+      <c r="AH3" s="190"/>
+      <c r="AJ3" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="162"/>
-      <c r="AL3" s="162"/>
-      <c r="AM3" s="162"/>
+      <c r="AK3" s="190"/>
+      <c r="AL3" s="190"/>
+      <c r="AM3" s="190"/>
     </row>
     <row r="4" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="N4" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="R4" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="162"/>
-      <c r="T4" s="162"/>
+      <c r="N4" s="190" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="190"/>
+      <c r="P4" s="190"/>
+      <c r="R4" s="190" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="190"/>
+      <c r="T4" s="190"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="W4" s="162"/>
-      <c r="X4" s="162"/>
-      <c r="Y4" s="162"/>
-      <c r="AA4" s="162" t="s">
+      <c r="V4" s="190" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="190"/>
+      <c r="X4" s="190"/>
+      <c r="Y4" s="190"/>
+      <c r="AA4" s="190" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="162"/>
-      <c r="AC4" s="162"/>
-      <c r="AE4" s="162" t="s">
+      <c r="AB4" s="190"/>
+      <c r="AC4" s="190"/>
+      <c r="AE4" s="190" t="s">
         <v>33</v>
       </c>
-      <c r="AF4" s="162"/>
-      <c r="AG4" s="162"/>
-      <c r="AH4" s="162"/>
-      <c r="AJ4" s="162" t="s">
+      <c r="AF4" s="190"/>
+      <c r="AG4" s="190"/>
+      <c r="AH4" s="190"/>
+      <c r="AJ4" s="190" t="s">
         <v>33</v>
       </c>
-      <c r="AK4" s="162"/>
-      <c r="AL4" s="162"/>
-      <c r="AM4" s="162"/>
+      <c r="AK4" s="190"/>
+      <c r="AL4" s="190"/>
+      <c r="AM4" s="190"/>
     </row>
     <row r="5" spans="7:39" x14ac:dyDescent="0.3">
       <c r="N5" s="3" t="s">
@@ -8110,10 +8075,10 @@
         <v>1</v>
       </c>
       <c r="U5" s="9"/>
-      <c r="V5" s="158" t="s">
+      <c r="V5" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="160"/>
+      <c r="W5" s="192"/>
       <c r="X5" s="5">
         <f>$O$5</f>
         <v>86</v>
@@ -8133,10 +8098,10 @@
         <f>AB5/$O$5</f>
         <v>1</v>
       </c>
-      <c r="AE5" s="158" t="s">
+      <c r="AE5" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="AF5" s="160"/>
+      <c r="AF5" s="192"/>
       <c r="AG5" s="5">
         <f>$O$5</f>
         <v>86</v>
@@ -8145,10 +8110,10 @@
         <f>AG5/$O$5</f>
         <v>1</v>
       </c>
-      <c r="AJ5" s="158" t="s">
+      <c r="AJ5" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="AK5" s="160"/>
+      <c r="AK5" s="192"/>
       <c r="AL5" s="5">
         <f>$O$5</f>
         <v>86</v>
@@ -8168,35 +8133,35 @@
       <c r="P6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="158" t="s">
+      <c r="R6" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="159"/>
-      <c r="T6" s="160"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="192"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="161" t="s">
+      <c r="V6" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="161"/>
-      <c r="X6" s="161"/>
-      <c r="Y6" s="161"/>
-      <c r="AA6" s="158" t="s">
+      <c r="W6" s="197"/>
+      <c r="X6" s="197"/>
+      <c r="Y6" s="197"/>
+      <c r="AA6" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="AB6" s="159"/>
-      <c r="AC6" s="160"/>
-      <c r="AE6" s="158" t="s">
+      <c r="AB6" s="196"/>
+      <c r="AC6" s="192"/>
+      <c r="AE6" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="AF6" s="159"/>
-      <c r="AG6" s="159"/>
-      <c r="AH6" s="160"/>
-      <c r="AJ6" s="163" t="s">
+      <c r="AF6" s="196"/>
+      <c r="AG6" s="196"/>
+      <c r="AH6" s="192"/>
+      <c r="AJ6" s="193" t="s">
         <v>39</v>
       </c>
-      <c r="AK6" s="164"/>
-      <c r="AL6" s="164"/>
-      <c r="AM6" s="165"/>
+      <c r="AK6" s="194"/>
+      <c r="AL6" s="194"/>
+      <c r="AM6" s="195"/>
     </row>
     <row r="7" spans="7:39" x14ac:dyDescent="0.3">
       <c r="N7" s="3" t="s">
@@ -8373,11 +8338,11 @@
         <f t="shared" si="0"/>
         <v>0.11627906976744186</v>
       </c>
-      <c r="AA9" s="158" t="s">
+      <c r="AA9" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="AB9" s="159"/>
-      <c r="AC9" s="160"/>
+      <c r="AB9" s="196"/>
+      <c r="AC9" s="192"/>
       <c r="AE9" s="3">
         <v>3</v>
       </c>
@@ -8584,10 +8549,10 @@
         <f t="shared" si="2"/>
         <v>0.11627906976744186</v>
       </c>
-      <c r="AJ12" s="162" t="s">
+      <c r="AJ12" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AK12" s="162"/>
+      <c r="AK12" s="190"/>
       <c r="AL12" s="8">
         <f>SUM(AL8:AL11)</f>
         <v>4</v>
@@ -8625,10 +8590,10 @@
         <f t="shared" si="0"/>
         <v>0.13953488372093023</v>
       </c>
-      <c r="AE13" s="162" t="s">
+      <c r="AE13" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="AF13" s="162"/>
+      <c r="AF13" s="190"/>
       <c r="AG13" s="8">
         <f>SUM(AG8:AG12)</f>
         <v>60</v>
@@ -8637,10 +8602,10 @@
         <f>SUM(AH8:AH12)</f>
         <v>0.69767441860465118</v>
       </c>
-      <c r="AJ13" s="162" t="s">
+      <c r="AJ13" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="AK13" s="162"/>
+      <c r="AK13" s="190"/>
       <c r="AL13" s="8">
         <f>AVERAGE(AL8:AL11)</f>
         <v>1</v>
@@ -8678,10 +8643,10 @@
         <f t="shared" si="0"/>
         <v>9.3023255813953487E-2</v>
       </c>
-      <c r="AE14" s="162" t="s">
+      <c r="AE14" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="AF14" s="162"/>
+      <c r="AF14" s="190"/>
       <c r="AG14" s="8">
         <f>AVERAGE(AG8:AG12)</f>
         <v>12</v>
@@ -8784,10 +8749,10 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="L20" s="2"/>
-      <c r="V20" s="158" t="s">
+      <c r="V20" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="W20" s="160"/>
+      <c r="W20" s="192"/>
       <c r="X20" s="8">
         <f>SUM(X8:X19)</f>
         <v>86</v>
@@ -8801,10 +8766,10 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="L21" s="2"/>
-      <c r="V21" s="158" t="s">
+      <c r="V21" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="W21" s="160"/>
+      <c r="W21" s="192"/>
       <c r="X21" s="8">
         <f>AVERAGE(X8:X19)</f>
         <v>7.166666666666667</v>
@@ -8925,12 +8890,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="AJ6:AM6"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="V5:W5"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AJ3:AM3"/>
@@ -8943,15 +8911,12 @@
     <mergeCell ref="AE6:AH6"/>
     <mergeCell ref="AA6:AC6"/>
     <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="AJ6:AM6"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="AE13:AF13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/prototypes/data_analysis.xlsx
+++ b/documents/prototypes/data_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ola\Pulpit\studia\praca inzynierska\lesson_plan_data_analysis\documents\prototypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAFD38F-4D0C-4473-AFF7-F0FAA0441655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923FE990-4EDB-4EE4-8504-CA76985958FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4CEEEB65-1C12-4BE0-93C4-ADB2FFF845DE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{4CEEEB65-1C12-4BE0-93C4-ADB2FFF845DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Ilość wystąpień" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="103">
   <si>
     <t>Ilość</t>
   </si>
@@ -323,12 +323,6 @@
     <t>Wszystkie możliwe dni w planie tygodnia</t>
   </si>
   <si>
-    <t>Częstotliwość występowania</t>
-  </si>
-  <si>
-    <t>Ilość wystąpień</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -338,16 +332,22 @@
     <t>* zakładając, że nie uwzględnia się wielokrotności zajęć na 1 godz. lekcyjnej</t>
   </si>
   <si>
-    <t>Dni - Ogólne</t>
-  </si>
-  <si>
-    <t>Dni - Lista</t>
-  </si>
-  <si>
-    <t>Godziny - Ogólne</t>
-  </si>
-  <si>
-    <t>Godziny - Lista</t>
+    <t>Wstęp</t>
+  </si>
+  <si>
+    <t>Ilość wystąpień - Dni</t>
+  </si>
+  <si>
+    <t>Ilość wystąpień  - Godz.</t>
+  </si>
+  <si>
+    <t>Ilość wystąpień - Godz.</t>
+  </si>
+  <si>
+    <t>Częstotliwość występowania - Godz.</t>
+  </si>
+  <si>
+    <t>Częstotliwość występowania - Dni</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -911,17 +911,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -943,17 +932,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1220,12 +1198,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1294,7 +1309,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1309,7 +1324,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1327,7 +1342,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1339,19 +1354,19 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1363,7 +1378,7 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1378,7 +1393,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1387,19 +1402,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1414,7 +1426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1432,27 +1444,24 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1465,7 +1474,7 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1477,7 +1486,7 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1492,10 +1501,10 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1504,7 +1513,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1546,22 +1555,16 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1570,13 +1573,13 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1612,7 +1615,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1630,22 +1633,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1663,7 +1663,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1672,56 +1672,77 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1732,82 +1753,67 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2145,618 +2151,712 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2685B308-FB1C-4972-8598-93AC3463B423}">
-  <dimension ref="C4:V23"/>
+  <dimension ref="C3:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="94"/>
-    <col min="3" max="3" width="37.6640625" style="94" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.21875" style="94" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="94" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="94" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" style="94" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="94" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" style="94" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="94" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="94" customWidth="1"/>
-    <col min="12" max="12" width="37" style="94" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.21875" style="94" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" style="94" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="94" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="94" customWidth="1"/>
-    <col min="17" max="17" width="6.88671875" style="94" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.77734375" style="94" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.21875" style="94" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.44140625" style="94" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="94"/>
+    <col min="1" max="2" width="8.88671875" style="92"/>
+    <col min="3" max="3" width="37" style="92" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" style="92" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="92" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="92" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="92" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" style="92" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="92" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" style="92" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" style="92" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" style="92" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" style="92" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" style="92" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.21875" style="92" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.44140625" style="92" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.77734375" style="92" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.21875" style="92" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" style="92" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="92"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="137"/>
-      <c r="S4" s="137"/>
-      <c r="T4" s="137"/>
-    </row>
-    <row r="5" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="158" t="s">
+    <row r="3" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="165" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="167"/>
+      <c r="H4" s="165" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="167"/>
+      <c r="M4" s="165" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="167"/>
+      <c r="T4" s="133"/>
+    </row>
+    <row r="5" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="139" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="92" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C6" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="159"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="158" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="158" t="s">
-        <v>95</v>
-      </c>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="158" t="s">
-        <v>95</v>
-      </c>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="160"/>
-    </row>
-    <row r="6" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="158" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="159"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="158" t="s">
+      <c r="D6" s="83">
+        <v>1</v>
+      </c>
+      <c r="E6" s="138">
+        <f>D6/D8</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F6" s="82">
+        <f>D6/($D$8*5)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H6" s="80">
+        <v>1</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="66">
+        <v>17</v>
+      </c>
+      <c r="K6" s="82">
+        <f>J6/$J$11</f>
+        <v>0.19767441860465115</v>
+      </c>
+      <c r="M6" s="106">
+        <v>1</v>
+      </c>
+      <c r="N6" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="60">
+        <v>8</v>
+      </c>
+      <c r="P6" s="79">
+        <f t="shared" ref="P6:P15" si="0">O6/$O$16</f>
+        <v>9.3023255813953487E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C7" s="136" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="140">
+        <v>10</v>
+      </c>
+      <c r="E7" s="141">
+        <f>D7/$D$8</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F7" s="143">
+        <f>D7/($D$8*5)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H7" s="84">
+        <v>2</v>
+      </c>
+      <c r="I7" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="13">
+        <v>20</v>
+      </c>
+      <c r="K7" s="79">
+        <f>J7/$J$11</f>
+        <v>0.23255813953488372</v>
+      </c>
+      <c r="M7" s="86">
+        <v>2</v>
+      </c>
+      <c r="N7" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="13">
+        <v>10</v>
+      </c>
+      <c r="P7" s="79">
+        <f t="shared" si="0"/>
+        <v>0.11627906976744186</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="144" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="145">
+        <v>12</v>
+      </c>
+      <c r="E8" s="146" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="147" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="88">
+        <v>3</v>
+      </c>
+      <c r="I8" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="13">
+        <v>15</v>
+      </c>
+      <c r="K8" s="79">
+        <f>J8/$J$11</f>
+        <v>0.1744186046511628</v>
+      </c>
+      <c r="M8" s="86">
+        <v>3</v>
+      </c>
+      <c r="N8" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="13">
+        <v>12</v>
+      </c>
+      <c r="P8" s="79">
+        <f t="shared" si="0"/>
+        <v>0.13953488372093023</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C9" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="97">
+        <v>1</v>
+      </c>
+      <c r="E9" s="157" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="154">
+        <f>D9/$D$11</f>
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="84">
+        <v>4</v>
+      </c>
+      <c r="I9" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="13">
+        <v>17</v>
+      </c>
+      <c r="K9" s="79">
+        <f>J9/$J$11</f>
+        <v>0.19767441860465115</v>
+      </c>
+      <c r="M9" s="86">
+        <v>4</v>
+      </c>
+      <c r="N9" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="13">
+        <v>12</v>
+      </c>
+      <c r="P9" s="79">
+        <f t="shared" si="0"/>
+        <v>0.13953488372093023</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="148" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="149">
+        <v>5</v>
+      </c>
+      <c r="E10" s="158" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="155">
+        <f>D10/$D$11</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="89">
+        <v>5</v>
+      </c>
+      <c r="I10" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="67">
+        <v>17</v>
+      </c>
+      <c r="K10" s="91">
+        <f>J10/$J$11</f>
+        <v>0.19767441860465115</v>
+      </c>
+      <c r="M10" s="86">
+        <v>5</v>
+      </c>
+      <c r="N10" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="13">
+        <v>14</v>
+      </c>
+      <c r="P10" s="79">
+        <f t="shared" si="0"/>
+        <v>0.16279069767441862</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="150">
+        <v>5</v>
+      </c>
+      <c r="E11" s="159" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="156" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="94">
+        <v>5</v>
+      </c>
+      <c r="J11" s="61">
+        <f>SUM(J6:J10)</f>
+        <v>86</v>
+      </c>
+      <c r="K11" s="142" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="86">
+        <v>6</v>
+      </c>
+      <c r="N11" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="13">
+        <v>12</v>
+      </c>
+      <c r="P11" s="79">
+        <f t="shared" si="0"/>
+        <v>0.13953488372093023</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="170" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="H12" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="169"/>
+      <c r="J12" s="62">
+        <f>AVERAGE(J6:J10)</f>
+        <v>17.2</v>
+      </c>
+      <c r="K12" s="95">
+        <f>AVERAGE(K6:K10)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="86">
+        <v>7</v>
+      </c>
+      <c r="N12" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="13">
+        <v>8</v>
+      </c>
+      <c r="P12" s="79">
+        <f t="shared" si="0"/>
+        <v>9.3023255813953487E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="103"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="86">
+        <v>8</v>
+      </c>
+      <c r="N13" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="13">
+        <v>6</v>
+      </c>
+      <c r="P13" s="79">
+        <f t="shared" si="0"/>
+        <v>6.9767441860465115E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="H14" s="110"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="86">
+        <v>9</v>
+      </c>
+      <c r="N14" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="13">
+        <v>3</v>
+      </c>
+      <c r="P14" s="79">
+        <f t="shared" si="0"/>
+        <v>3.4883720930232558E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="86">
+        <v>10</v>
+      </c>
+      <c r="N15" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="13">
+        <v>1</v>
+      </c>
+      <c r="P15" s="79">
+        <f t="shared" si="0"/>
+        <v>1.1627906976744186E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="94">
+        <v>10</v>
+      </c>
+      <c r="O16" s="61">
+        <f>SUM(O6:O15)</f>
+        <v>86</v>
+      </c>
+      <c r="P16" s="142" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="13:16" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="151" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="152"/>
+      <c r="O17" s="62">
+        <f>AVERAGE(O6:O15)</f>
+        <v>8.6</v>
+      </c>
+      <c r="P17" s="95">
+        <f>AVERAGE(P6:P15)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="13:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="13:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="13:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="13:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M22" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="158" t="s">
-        <v>101</v>
-      </c>
-      <c r="M6" s="159"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="137"/>
-      <c r="Q6" s="158" t="s">
-        <v>102</v>
-      </c>
-      <c r="R6" s="159"/>
-      <c r="S6" s="159"/>
-      <c r="T6" s="160"/>
-      <c r="V6" s="94" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="79" t="s">
+      <c r="N22" s="166"/>
+      <c r="O22" s="166"/>
+      <c r="P22" s="167"/>
+    </row>
+    <row r="23" spans="13:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="77" t="s">
+    </row>
+    <row r="24" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M24" s="106">
+        <v>1</v>
+      </c>
+      <c r="N24" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" s="66">
+        <v>8</v>
+      </c>
+      <c r="P24" s="82">
+        <f t="shared" ref="P24:P35" si="1">O24/$O$36</f>
+        <v>9.3023255813953487E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M25" s="86">
+        <v>2</v>
+      </c>
+      <c r="N25" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="13">
         <v>10</v>
       </c>
-      <c r="I7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="79" t="s">
+      <c r="P25" s="79">
+        <f t="shared" si="1"/>
+        <v>0.11627906976744186</v>
+      </c>
+    </row>
+    <row r="26" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M26" s="86">
+        <v>3</v>
+      </c>
+      <c r="N26" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" s="13">
+        <v>12</v>
+      </c>
+      <c r="P26" s="79">
+        <f t="shared" si="1"/>
+        <v>0.13953488372093023</v>
+      </c>
+    </row>
+    <row r="27" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M27" s="86">
+        <v>4</v>
+      </c>
+      <c r="N27" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27" s="13">
+        <v>12</v>
+      </c>
+      <c r="P27" s="79">
+        <f t="shared" si="1"/>
+        <v>0.13953488372093023</v>
+      </c>
+    </row>
+    <row r="28" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M28" s="86">
+        <v>5</v>
+      </c>
+      <c r="N28" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="O28" s="13">
+        <v>14</v>
+      </c>
+      <c r="P28" s="79">
+        <f t="shared" si="1"/>
+        <v>0.16279069767441862</v>
+      </c>
+    </row>
+    <row r="29" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M29" s="86">
+        <v>6</v>
+      </c>
+      <c r="N29" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="13">
+        <v>12</v>
+      </c>
+      <c r="P29" s="79">
+        <f t="shared" si="1"/>
+        <v>0.13953488372093023</v>
+      </c>
+    </row>
+    <row r="30" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M30" s="86">
+        <v>7</v>
+      </c>
+      <c r="N30" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="13">
+        <v>8</v>
+      </c>
+      <c r="P30" s="79">
+        <f t="shared" si="1"/>
+        <v>9.3023255813953487E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M31" s="86">
+        <v>8</v>
+      </c>
+      <c r="N31" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" s="13">
+        <v>6</v>
+      </c>
+      <c r="P31" s="79">
+        <f t="shared" si="1"/>
+        <v>6.9767441860465115E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M32" s="86">
+        <v>9</v>
+      </c>
+      <c r="N32" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="O32" s="13">
+        <v>3</v>
+      </c>
+      <c r="P32" s="79">
+        <f t="shared" si="1"/>
+        <v>3.4883720930232558E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M33" s="86">
+        <v>10</v>
+      </c>
+      <c r="N33" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="13">
+        <v>1</v>
+      </c>
+      <c r="P33" s="79">
+        <f t="shared" si="1"/>
+        <v>1.1627906976744186E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M34" s="86">
+        <v>11</v>
+      </c>
+      <c r="N34" s="161" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="86">
+        <v>0</v>
+      </c>
+      <c r="P34" s="162">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="13:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M35" s="160">
+        <v>12</v>
+      </c>
+      <c r="N35" s="163" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" s="160">
+        <v>0</v>
+      </c>
+      <c r="P35" s="164">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M36" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" s="94">
+        <v>12</v>
+      </c>
+      <c r="O36" s="61">
+        <f>SUM(O24:O35)</f>
         <v>86</v>
       </c>
-      <c r="K7" s="105"/>
-      <c r="L7" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="144" t="s">
-        <v>85</v>
-      </c>
-      <c r="O7" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="T7" s="79" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C8" s="110" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="99">
-        <v>1</v>
-      </c>
-      <c r="E8" s="138">
-        <f>D8/$D$10</f>
-        <v>0.2</v>
-      </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="82">
-        <v>1</v>
-      </c>
-      <c r="H8" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="67">
-        <v>17</v>
-      </c>
-      <c r="J8" s="84">
-        <f>I8/$I$13</f>
-        <v>0.19767441860465115</v>
-      </c>
-      <c r="K8" s="105"/>
-      <c r="L8" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" s="85">
-        <v>1</v>
-      </c>
-      <c r="N8" s="143">
-        <f>M8/M10</f>
+      <c r="P36" s="142" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="13:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M37" s="151" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37" s="152"/>
+      <c r="O37" s="62">
+        <f>AVERAGE(O24:O35)</f>
+        <v>7.166666666666667</v>
+      </c>
+      <c r="P37" s="95">
+        <f>AVERAGE(P24:P35)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="O8" s="84">
-        <f>M8/($M$10*5)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="108">
-        <v>1</v>
-      </c>
-      <c r="R8" s="111" t="s">
-        <v>11</v>
-      </c>
-      <c r="S8" s="60">
-        <v>8</v>
-      </c>
-      <c r="T8" s="81">
-        <f>S8/$S$20</f>
-        <v>9.3023255813953487E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C9" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="155">
-        <v>5</v>
-      </c>
-      <c r="E9" s="156">
-        <f>D9/$D$10</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="112"/>
-      <c r="G9" s="86">
-        <v>2</v>
-      </c>
-      <c r="H9" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="13">
-        <v>20</v>
-      </c>
-      <c r="J9" s="81">
-        <f>I9/$I$13</f>
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="K9" s="112"/>
-      <c r="L9" s="141" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="145">
-        <v>10</v>
-      </c>
-      <c r="N9" s="146">
-        <f>M9/$M$10</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="O9" s="148">
-        <f>M9/($M$10*5)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="88">
-        <v>2</v>
-      </c>
-      <c r="R9" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="13">
-        <v>10</v>
-      </c>
-      <c r="T9" s="81">
-        <f>S9/$S$20</f>
-        <v>0.11627906976744186</v>
-      </c>
-    </row>
-    <row r="10" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="149" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="157">
-        <v>5</v>
-      </c>
-      <c r="E10" s="153" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="112"/>
-      <c r="G10" s="90">
-        <v>3</v>
-      </c>
-      <c r="H10" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="13">
-        <v>15</v>
-      </c>
-      <c r="J10" s="81">
-        <f>I10/$I$13</f>
-        <v>0.1744186046511628</v>
-      </c>
-      <c r="K10" s="112"/>
-      <c r="L10" s="149" t="s">
-        <v>92</v>
-      </c>
-      <c r="M10" s="150">
-        <v>12</v>
-      </c>
-      <c r="N10" s="151" t="s">
-        <v>96</v>
-      </c>
-      <c r="O10" s="152" t="s">
-        <v>96</v>
-      </c>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="88">
-        <v>3</v>
-      </c>
-      <c r="R10" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="S10" s="13">
-        <v>12</v>
-      </c>
-      <c r="T10" s="81">
-        <f>S10/$S$20</f>
-        <v>0.13953488372093023</v>
-      </c>
-    </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="F11" s="113"/>
-      <c r="G11" s="86">
-        <v>4</v>
-      </c>
-      <c r="H11" s="87" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="13">
-        <v>17</v>
-      </c>
-      <c r="J11" s="81">
-        <f>I11/$I$13</f>
-        <v>0.19767441860465115</v>
-      </c>
-      <c r="K11" s="112"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="88">
-        <v>4</v>
-      </c>
-      <c r="R11" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="S11" s="13">
-        <v>12</v>
-      </c>
-      <c r="T11" s="81">
-        <f>S11/$S$20</f>
-        <v>0.13953488372093023</v>
-      </c>
-    </row>
-    <row r="12" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="91">
-        <v>5</v>
-      </c>
-      <c r="H12" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="68">
-        <v>17</v>
-      </c>
-      <c r="J12" s="93">
-        <f>I12/$I$13</f>
-        <v>0.19767441860465115</v>
-      </c>
-      <c r="K12" s="112"/>
-      <c r="Q12" s="88">
-        <v>5</v>
-      </c>
-      <c r="R12" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="S12" s="13">
-        <v>14</v>
-      </c>
-      <c r="T12" s="81">
-        <f>S12/$S$20</f>
-        <v>0.16279069767441862</v>
-      </c>
-    </row>
-    <row r="13" spans="3:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="96">
-        <v>5</v>
-      </c>
-      <c r="I13" s="62">
-        <f>SUM(I8:I12)</f>
-        <v>86</v>
-      </c>
-      <c r="J13" s="147" t="s">
-        <v>96</v>
-      </c>
-      <c r="K13" s="112"/>
-      <c r="L13" s="165" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" s="165"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="165"/>
-      <c r="Q13" s="88">
-        <v>6</v>
-      </c>
-      <c r="R13" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="S13" s="13">
-        <v>12</v>
-      </c>
-      <c r="T13" s="81">
-        <f>S13/$S$20</f>
-        <v>0.13953488372093023</v>
-      </c>
-    </row>
-    <row r="14" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="163" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="164"/>
-      <c r="I14" s="63">
-        <f>AVERAGE(I8:I12)</f>
-        <v>17.2</v>
-      </c>
-      <c r="J14" s="97">
-        <f>AVERAGE(J8:J12)</f>
-        <v>0.2</v>
-      </c>
-      <c r="K14" s="113"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="165"/>
-      <c r="Q14" s="88">
-        <v>7</v>
-      </c>
-      <c r="R14" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="S14" s="13">
-        <v>8</v>
-      </c>
-      <c r="T14" s="81">
-        <f>S14/$S$20</f>
-        <v>9.3023255813953487E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="K15" s="113"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
-      <c r="Q15" s="88">
-        <v>8</v>
-      </c>
-      <c r="R15" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="S15" s="13">
-        <v>6</v>
-      </c>
-      <c r="T15" s="81">
-        <f>S15/$S$20</f>
-        <v>6.9767441860465115E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="L16" s="142"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="142"/>
-      <c r="Q16" s="88">
-        <v>9</v>
-      </c>
-      <c r="R16" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="S16" s="13">
-        <v>3</v>
-      </c>
-      <c r="T16" s="81">
-        <f>S16/$S$20</f>
-        <v>3.4883720930232558E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="12:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="142"/>
-      <c r="Q17" s="88">
-        <v>10</v>
-      </c>
-      <c r="R17" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" s="13">
-        <v>1</v>
-      </c>
-      <c r="T17" s="81">
-        <f>S17/$S$20</f>
-        <v>1.1627906976744186E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="12:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L18" s="142"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="142"/>
-      <c r="O18" s="142"/>
-      <c r="Q18" s="88">
-        <v>11</v>
-      </c>
-      <c r="R18" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="13">
-        <v>0</v>
-      </c>
-      <c r="T18" s="81">
-        <f>S18/$S$20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="12:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L19" s="142"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142"/>
-      <c r="Q19" s="100">
-        <v>12</v>
-      </c>
-      <c r="R19" s="114" t="s">
-        <v>22</v>
-      </c>
-      <c r="S19" s="61">
-        <v>0</v>
-      </c>
-      <c r="T19" s="81">
-        <f>S19/$S$20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="12:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="Q20" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="R20" s="96">
-        <v>12</v>
-      </c>
-      <c r="S20" s="62">
-        <f>SUM(S8:S19)</f>
-        <v>86</v>
-      </c>
-      <c r="T20" s="147" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="12:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L21" s="142"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="142"/>
-      <c r="O21" s="142"/>
-      <c r="Q21" s="161" t="s">
-        <v>28</v>
-      </c>
-      <c r="R21" s="162"/>
-      <c r="S21" s="63">
-        <f>AVERAGE(S8:S19)</f>
-        <v>7.166666666666667</v>
-      </c>
-      <c r="T21" s="97">
-        <f>AVERAGE(T8:T19)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="12:20" x14ac:dyDescent="0.3">
-      <c r="L22" s="142"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="142"/>
-    </row>
-    <row r="23" spans="12:20" x14ac:dyDescent="0.3">
-      <c r="L23" s="142"/>
-      <c r="M23" s="142"/>
-      <c r="N23" s="142"/>
-      <c r="O23" s="142"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="L13:O14"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="C6:E6"/>
+  <mergeCells count="6">
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2767,358 +2867,363 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08D5CEB-8F50-4E77-9C1B-B1431435D4C4}">
   <dimension ref="C3:U15"/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
     <col min="10" max="10" width="11.21875" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
     <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.77734375" customWidth="1"/>
     <col min="20" max="20" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="169" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="171"/>
+      <c r="C4" s="171" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="172"/>
+      <c r="E4" s="173"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="169" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="170"/>
-      <c r="I4" s="171"/>
+      <c r="G4" s="171" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="172"/>
+      <c r="I4" s="173"/>
       <c r="J4" s="22"/>
-      <c r="K4" s="169" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="171"/>
+      <c r="K4" s="171" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="172"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="173"/>
       <c r="O4" s="22"/>
-      <c r="P4" s="169" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="170"/>
-      <c r="S4" s="171"/>
+      <c r="P4" s="171" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4" s="172"/>
+      <c r="R4" s="172"/>
+      <c r="S4" s="173"/>
       <c r="T4" s="22"/>
     </row>
     <row r="5" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="169" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="170"/>
-      <c r="E5" s="171"/>
+      <c r="C5" s="171" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="172"/>
+      <c r="E5" s="173"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="169" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="170"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="166" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="168"/>
+      <c r="G5" s="171" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="172"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="171" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="172"/>
+      <c r="M5" s="172"/>
+      <c r="N5" s="173"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="166" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="167"/>
-      <c r="R5" s="167"/>
-      <c r="S5" s="168"/>
+      <c r="P5" s="171" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" s="172"/>
+      <c r="R5" s="172"/>
+      <c r="S5" s="173"/>
       <c r="T5" s="22"/>
     </row>
     <row r="6" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="176" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="177"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="176" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="177"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="169" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="171"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="169" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q6" s="170"/>
-      <c r="R6" s="170"/>
-      <c r="S6" s="171"/>
+      <c r="C6" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="132"/>
+      <c r="G6" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="132"/>
+      <c r="K6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="132"/>
+      <c r="P6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="105" t="s">
+        <v>86</v>
+      </c>
       <c r="U6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="136"/>
-      <c r="G7" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="136"/>
-      <c r="P7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" s="106" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" s="107" t="s">
-        <v>86</v>
+      <c r="C7" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="69">
+        <v>20</v>
+      </c>
+      <c r="E7" s="16">
+        <f>D7/86</f>
+        <v>0.23255813953488372</v>
+      </c>
+      <c r="F7" s="132"/>
+      <c r="G7" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="69">
+        <v>15</v>
+      </c>
+      <c r="I7" s="16">
+        <f>H7/86</f>
+        <v>0.1744186046511628</v>
+      </c>
+      <c r="J7" s="132"/>
+      <c r="K7" s="99">
+        <v>5</v>
+      </c>
+      <c r="L7" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="111">
+        <v>14</v>
+      </c>
+      <c r="N7" s="18">
+        <f>M7/86</f>
+        <v>0.16279069767441862</v>
+      </c>
+      <c r="O7" s="132"/>
+      <c r="P7" s="99">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="99">
+        <v>0</v>
+      </c>
+      <c r="S7" s="18">
+        <f>R7/86</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="73" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D8" s="70">
+        <f>SUM(D7:D7)</f>
         <v>20</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="32">
         <f>D8/86</f>
         <v>0.23255813953488372</v>
       </c>
-      <c r="F8" s="133"/>
+      <c r="F8" s="129"/>
       <c r="G8" s="73" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="H8" s="70">
+        <f>SUM(H7:H7)</f>
         <v>15</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="32">
         <f>H8/86</f>
         <v>0.1744186046511628</v>
       </c>
-      <c r="J8" s="133"/>
-      <c r="K8" s="101">
-        <v>5</v>
-      </c>
-      <c r="L8" s="102" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="115">
+      <c r="J8" s="129"/>
+      <c r="K8" s="14">
+        <v>3</v>
+      </c>
+      <c r="L8" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="12">
+        <v>12</v>
+      </c>
+      <c r="N8" s="127">
+        <f>M8/86</f>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="O8" s="129"/>
+      <c r="P8" s="14">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="86">
+        <v>0</v>
+      </c>
+      <c r="S8" s="107">
+        <f t="shared" ref="S8:S13" si="0">R8/86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="125">
+        <f>86-D8</f>
+        <v>66</v>
+      </c>
+      <c r="E9" s="126">
+        <f>100%-E8</f>
+        <v>0.76744186046511631</v>
+      </c>
+      <c r="F9" s="130"/>
+      <c r="G9" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="125">
+        <f>86-H8</f>
+        <v>71</v>
+      </c>
+      <c r="I9" s="126">
+        <f>100%-I8</f>
+        <v>0.82558139534883723</v>
+      </c>
+      <c r="J9" s="130"/>
+      <c r="K9" s="14">
+        <v>4</v>
+      </c>
+      <c r="L9" s="63" t="s">
         <v>14</v>
-      </c>
-      <c r="N8" s="18">
-        <f t="shared" ref="N8:N15" si="0">M8/86</f>
-        <v>0.16279069767441862</v>
-      </c>
-      <c r="O8" s="133"/>
-      <c r="P8" s="101">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="101">
-        <v>0</v>
-      </c>
-      <c r="S8" s="18">
-        <f>R8/86</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="71">
-        <f>SUM(D8:D8)</f>
-        <v>20</v>
-      </c>
-      <c r="E9" s="32">
-        <f>D9/86</f>
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="F9" s="134"/>
-      <c r="G9" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="71">
-        <f>SUM(H8:H8)</f>
-        <v>15</v>
-      </c>
-      <c r="I9" s="32">
-        <f>H9/86</f>
-        <v>0.1744186046511628</v>
-      </c>
-      <c r="J9" s="134"/>
-      <c r="K9" s="14">
-        <v>3</v>
-      </c>
-      <c r="L9" s="64" t="s">
-        <v>13</v>
       </c>
       <c r="M9" s="12">
         <v>12</v>
       </c>
-      <c r="N9" s="131">
+      <c r="N9" s="127">
+        <f>M9/86</f>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="O9" s="129"/>
+      <c r="P9" s="14">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="86">
+        <v>1</v>
+      </c>
+      <c r="S9" s="107">
         <f t="shared" si="0"/>
-        <v>0.13953488372093023</v>
-      </c>
-      <c r="O9" s="133"/>
-      <c r="P9" s="14">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" s="88">
-        <v>0</v>
-      </c>
-      <c r="S9" s="109">
-        <f t="shared" ref="S9:S14" si="1">R9/86</f>
-        <v>0</v>
+        <v>1.1627906976744186E-2</v>
       </c>
     </row>
     <row r="10" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="128" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="129">
-        <f>86-D9</f>
-        <v>66</v>
-      </c>
-      <c r="E10" s="130">
-        <f>100%-E9</f>
-        <v>0.76744186046511631</v>
-      </c>
-      <c r="F10" s="135"/>
-      <c r="G10" s="128" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="129">
-        <f>86-H9</f>
-        <v>71</v>
-      </c>
-      <c r="I10" s="130">
-        <f>100%-I9</f>
-        <v>0.82558139534883723</v>
-      </c>
-      <c r="J10" s="135"/>
+      <c r="F10" s="131"/>
+      <c r="J10" s="131"/>
       <c r="K10" s="14">
-        <v>4</v>
-      </c>
-      <c r="L10" s="64" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="L10" s="63" t="s">
+        <v>16</v>
       </c>
       <c r="M10" s="12">
         <v>12</v>
       </c>
-      <c r="N10" s="131">
+      <c r="N10" s="127">
+        <f>M10/86</f>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="O10" s="129"/>
+      <c r="P10" s="17">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="98">
+        <v>3</v>
+      </c>
+      <c r="S10" s="19">
         <f t="shared" si="0"/>
-        <v>0.13953488372093023</v>
-      </c>
-      <c r="O10" s="133"/>
-      <c r="P10" s="14">
+        <v>3.4883720930232558E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="101">
+        <v>2</v>
+      </c>
+      <c r="L11" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="71">
         <v>10</v>
       </c>
-      <c r="Q10" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="88">
-        <v>1</v>
-      </c>
-      <c r="S10" s="109">
-        <f t="shared" si="1"/>
-        <v>1.1627906976744186E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="14">
-        <v>6</v>
-      </c>
-      <c r="L11" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="12">
-        <v>12</v>
-      </c>
-      <c r="N11" s="131">
+      <c r="N11" s="128">
+        <f>M11/86</f>
+        <v>0.11627906976744186</v>
+      </c>
+      <c r="O11" s="129"/>
+      <c r="P11" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="65">
+        <v>4</v>
+      </c>
+      <c r="R11" s="120">
+        <f>SUM(R7:R10)</f>
+        <v>4</v>
+      </c>
+      <c r="S11" s="18">
         <f t="shared" si="0"/>
-        <v>0.13953488372093023</v>
-      </c>
-      <c r="O11" s="133"/>
-      <c r="P11" s="17">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="100">
-        <v>3</v>
-      </c>
-      <c r="S11" s="19">
-        <f t="shared" si="1"/>
-        <v>3.4883720930232558E-2</v>
+        <v>4.6511627906976744E-2</v>
       </c>
     </row>
     <row r="12" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3130,33 +3235,32 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="103">
-        <v>2</v>
-      </c>
-      <c r="L12" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="72">
-        <v>10</v>
-      </c>
-      <c r="N12" s="132">
+      <c r="K12" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="74">
+        <v>5</v>
+      </c>
+      <c r="M12" s="61">
+        <f>SUM(M7:M11)</f>
+        <v>60</v>
+      </c>
+      <c r="N12" s="114">
+        <f>M12/86</f>
+        <v>0.69767441860465118</v>
+      </c>
+      <c r="O12" s="129"/>
+      <c r="P12" s="174" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="175"/>
+      <c r="R12" s="121">
+        <f>AVERAGE(R7:R10)</f>
+        <v>1</v>
+      </c>
+      <c r="S12" s="19">
         <f t="shared" si="0"/>
-        <v>0.11627906976744186</v>
-      </c>
-      <c r="O12" s="133"/>
-      <c r="P12" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="66">
-        <v>4</v>
-      </c>
-      <c r="R12" s="124">
-        <f>SUM(R8:R11)</f>
-        <v>4</v>
-      </c>
-      <c r="S12" s="18">
-        <f t="shared" si="1"/>
-        <v>4.6511627906976744E-2</v>
+        <v>1.1627906976744186E-2</v>
       </c>
     </row>
     <row r="13" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3168,32 +3272,33 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="75">
-        <v>5</v>
-      </c>
+      <c r="K13" s="174" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="175"/>
       <c r="M13" s="62">
-        <f>SUM(M8:M12)</f>
-        <v>60</v>
-      </c>
-      <c r="N13" s="118">
+        <f>AVERAGE(M7:M11)</f>
+        <v>12</v>
+      </c>
+      <c r="N13" s="115">
+        <f>M13/86</f>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="O13" s="129"/>
+      <c r="P13" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" s="118">
+        <f>12-Q11</f>
+        <v>8</v>
+      </c>
+      <c r="R13" s="122">
+        <f>86-R11</f>
+        <v>82</v>
+      </c>
+      <c r="S13" s="119">
         <f t="shared" si="0"/>
-        <v>0.69767441860465118</v>
-      </c>
-      <c r="O13" s="133"/>
-      <c r="P13" s="174" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="175"/>
-      <c r="R13" s="125">
-        <f>AVERAGE(R8:R11)</f>
-        <v>1</v>
-      </c>
-      <c r="S13" s="19">
-        <f t="shared" si="1"/>
-        <v>1.1627906976744186E-2</v>
+        <v>0.95348837209302328</v>
       </c>
     </row>
     <row r="14" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3205,36 +3310,24 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="172" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="173"/>
-      <c r="M14" s="63">
-        <f>AVERAGE(M8:M12)</f>
-        <v>12</v>
+      <c r="K14" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="75">
+        <f>12-L12</f>
+        <v>7</v>
+      </c>
+      <c r="M14" s="116">
+        <f>86-M12</f>
+        <v>26</v>
       </c>
       <c r="N14" s="119">
-        <f t="shared" si="0"/>
-        <v>0.13953488372093023</v>
-      </c>
-      <c r="O14" s="133"/>
-      <c r="P14" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="122">
-        <f>12-Q12</f>
-        <v>8</v>
-      </c>
-      <c r="R14" s="126">
-        <f>86-R12</f>
-        <v>82</v>
-      </c>
-      <c r="S14" s="123">
-        <f t="shared" si="1"/>
-        <v>0.95348837209302328</v>
-      </c>
-    </row>
-    <row r="15" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>M14/86</f>
+        <v>0.30232558139534882</v>
+      </c>
+      <c r="O14" s="129"/>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -3243,43 +3336,24 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="L15" s="76">
-        <f>12-L13</f>
-        <v>7</v>
-      </c>
-      <c r="M15" s="120">
-        <f>86-M13</f>
-        <v>26</v>
-      </c>
-      <c r="N15" s="123">
-        <f t="shared" si="0"/>
-        <v>0.30232558139534882</v>
-      </c>
-      <c r="O15" s="133"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="117"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="113"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C4:E4"/>
+  <mergeCells count="10">
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="P5:S5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3381,129 +3455,129 @@
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
-      <c r="D2" s="182" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="184" t="s">
+      <c r="D2" s="185" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="185"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="185" t="s">
+      <c r="H2" s="181"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="184" t="s">
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="185"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="185" t="s">
+      <c r="N2" s="181"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="169" t="s">
+      <c r="Q2" s="181"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="171"/>
+      <c r="T2" s="173"/>
       <c r="U2" s="35"/>
       <c r="V2" s="35"/>
       <c r="W2" s="35"/>
-      <c r="X2" s="184" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="185"/>
-      <c r="Z2" s="185"/>
-      <c r="AA2" s="184" t="s">
+      <c r="X2" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="181"/>
+      <c r="AA2" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="186"/>
-      <c r="AD2" s="185" t="s">
+      <c r="AB2" s="181"/>
+      <c r="AC2" s="177"/>
+      <c r="AD2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="185"/>
-      <c r="AF2" s="185"/>
-      <c r="AG2" s="184" t="s">
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="181"/>
+      <c r="AG2" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="185"/>
-      <c r="AI2" s="186"/>
-      <c r="AJ2" s="185" t="s">
+      <c r="AH2" s="181"/>
+      <c r="AI2" s="177"/>
+      <c r="AJ2" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="185"/>
-      <c r="AL2" s="186"/>
-      <c r="AM2" s="169" t="s">
+      <c r="AK2" s="181"/>
+      <c r="AL2" s="177"/>
+      <c r="AM2" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="AN2" s="171"/>
+      <c r="AN2" s="173"/>
       <c r="AP2" s="35"/>
       <c r="AQ2" s="35"/>
-      <c r="AR2" s="184" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="185"/>
-      <c r="AT2" s="186"/>
-      <c r="AU2" s="184" t="s">
+      <c r="AR2" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="181"/>
+      <c r="AT2" s="177"/>
+      <c r="AU2" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="185"/>
-      <c r="AW2" s="186"/>
-      <c r="AX2" s="184" t="s">
+      <c r="AV2" s="181"/>
+      <c r="AW2" s="177"/>
+      <c r="AX2" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="AY2" s="185"/>
-      <c r="AZ2" s="186"/>
-      <c r="BA2" s="184" t="s">
+      <c r="AY2" s="181"/>
+      <c r="AZ2" s="177"/>
+      <c r="BA2" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="BB2" s="185"/>
-      <c r="BC2" s="186"/>
-      <c r="BD2" s="184" t="s">
+      <c r="BB2" s="181"/>
+      <c r="BC2" s="177"/>
+      <c r="BD2" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="BE2" s="185"/>
-      <c r="BF2" s="186"/>
-      <c r="BG2" s="169" t="s">
+      <c r="BE2" s="181"/>
+      <c r="BF2" s="177"/>
+      <c r="BG2" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="BH2" s="171"/>
+      <c r="BH2" s="173"/>
       <c r="BJ2" s="35"/>
       <c r="BK2" s="35"/>
-      <c r="BL2" s="184" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM2" s="185"/>
-      <c r="BN2" s="186"/>
-      <c r="BO2" s="184" t="s">
+      <c r="BL2" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="181"/>
+      <c r="BN2" s="177"/>
+      <c r="BO2" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="BP2" s="185"/>
-      <c r="BQ2" s="186"/>
-      <c r="BR2" s="184" t="s">
+      <c r="BP2" s="181"/>
+      <c r="BQ2" s="177"/>
+      <c r="BR2" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="BS2" s="185"/>
-      <c r="BT2" s="186"/>
-      <c r="BU2" s="184" t="s">
+      <c r="BS2" s="181"/>
+      <c r="BT2" s="177"/>
+      <c r="BU2" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="BV2" s="185"/>
-      <c r="BW2" s="186"/>
-      <c r="BX2" s="184" t="s">
+      <c r="BV2" s="181"/>
+      <c r="BW2" s="177"/>
+      <c r="BX2" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="185"/>
-      <c r="BZ2" s="186"/>
-      <c r="CA2" s="184" t="s">
+      <c r="BY2" s="181"/>
+      <c r="BZ2" s="177"/>
+      <c r="CA2" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="CB2" s="186"/>
+      <c r="CB2" s="177"/>
     </row>
     <row r="3" spans="1:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="35"/>
@@ -3725,7 +3799,7 @@
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="182" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -3794,7 +3868,7 @@
         <v>9.3023255813953487E-2</v>
       </c>
       <c r="U4" s="35"/>
-      <c r="V4" s="179" t="s">
+      <c r="V4" s="182" t="s">
         <v>45</v>
       </c>
       <c r="W4" s="37" t="s">
@@ -3862,7 +3936,7 @@
         <f>AM4/AM$13</f>
         <v>0.22093023255813954</v>
       </c>
-      <c r="AP4" s="187" t="s">
+      <c r="AP4" s="178" t="s">
         <v>47</v>
       </c>
       <c r="AQ4" s="37" t="s">
@@ -3930,7 +4004,7 @@
         <f>BG4/BG$8</f>
         <v>0.30232558139534882</v>
       </c>
-      <c r="BJ4" s="187" t="s">
+      <c r="BJ4" s="178" t="s">
         <v>49</v>
       </c>
       <c r="BK4" s="37">
@@ -4001,7 +4075,7 @@
     </row>
     <row r="5" spans="1:80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
-      <c r="B5" s="180"/>
+      <c r="B5" s="183"/>
       <c r="C5" s="41" t="s">
         <v>50</v>
       </c>
@@ -4068,7 +4142,7 @@
         <v>2.3255813953488372E-2</v>
       </c>
       <c r="U5" s="35"/>
-      <c r="V5" s="180"/>
+      <c r="V5" s="183"/>
       <c r="W5" s="41" t="s">
         <v>51</v>
       </c>
@@ -4134,7 +4208,7 @@
         <f>AM5/AM$13</f>
         <v>0.10465116279069768</v>
       </c>
-      <c r="AP5" s="188"/>
+      <c r="AP5" s="179"/>
       <c r="AQ5" s="41" t="s">
         <v>52</v>
       </c>
@@ -4200,7 +4274,7 @@
         <f>BG5/BG$8</f>
         <v>0.30232558139534882</v>
       </c>
-      <c r="BJ5" s="188"/>
+      <c r="BJ5" s="179"/>
       <c r="BK5" s="41">
         <v>11</v>
       </c>
@@ -4269,7 +4343,7 @@
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
-      <c r="B6" s="180"/>
+      <c r="B6" s="183"/>
       <c r="C6" s="41" t="s">
         <v>53</v>
       </c>
@@ -4336,7 +4410,7 @@
         <v>4.6511627906976744E-2</v>
       </c>
       <c r="U6" s="35"/>
-      <c r="V6" s="180"/>
+      <c r="V6" s="183"/>
       <c r="W6" s="41" t="s">
         <v>54</v>
       </c>
@@ -4402,7 +4476,7 @@
         <f t="shared" ref="AN6:AN13" si="32">AM6/AM$13</f>
         <v>8.1395348837209308E-2</v>
       </c>
-      <c r="AP6" s="188"/>
+      <c r="AP6" s="179"/>
       <c r="AQ6" s="41" t="s">
         <v>55</v>
       </c>
@@ -4468,7 +4542,7 @@
         <f>BG6/BG$8</f>
         <v>0.30232558139534882</v>
       </c>
-      <c r="BJ6" s="188"/>
+      <c r="BJ6" s="179"/>
       <c r="BK6" s="41">
         <v>102</v>
       </c>
@@ -4537,7 +4611,7 @@
     </row>
     <row r="7" spans="1:80" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35"/>
-      <c r="B7" s="180"/>
+      <c r="B7" s="183"/>
       <c r="C7" s="41" t="s">
         <v>56</v>
       </c>
@@ -4604,7 +4678,7 @@
         <v>4.6511627906976744E-2</v>
       </c>
       <c r="U7" s="35"/>
-      <c r="V7" s="180"/>
+      <c r="V7" s="183"/>
       <c r="W7" s="41" t="s">
         <v>57</v>
       </c>
@@ -4670,7 +4744,7 @@
         <f t="shared" si="32"/>
         <v>0.15116279069767441</v>
       </c>
-      <c r="AP7" s="189"/>
+      <c r="AP7" s="180"/>
       <c r="AQ7" s="44" t="s">
         <v>58</v>
       </c>
@@ -4736,7 +4810,7 @@
         <f>BG7/BG$8</f>
         <v>9.3023255813953487E-2</v>
       </c>
-      <c r="BJ7" s="188"/>
+      <c r="BJ7" s="179"/>
       <c r="BK7" s="41">
         <v>115</v>
       </c>
@@ -4805,7 +4879,7 @@
     </row>
     <row r="8" spans="1:80" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35"/>
-      <c r="B8" s="180"/>
+      <c r="B8" s="183"/>
       <c r="C8" s="41" t="s">
         <v>59</v>
       </c>
@@ -4872,7 +4946,7 @@
         <v>4.6511627906976744E-2</v>
       </c>
       <c r="U8" s="35"/>
-      <c r="V8" s="180"/>
+      <c r="V8" s="183"/>
       <c r="W8" s="41" t="s">
         <v>60</v>
       </c>
@@ -5006,7 +5080,7 @@
         <f>BG8/BG$8</f>
         <v>1</v>
       </c>
-      <c r="BJ8" s="188"/>
+      <c r="BJ8" s="179"/>
       <c r="BK8" s="41">
         <v>116</v>
       </c>
@@ -5075,7 +5149,7 @@
     </row>
     <row r="9" spans="1:80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35"/>
-      <c r="B9" s="180"/>
+      <c r="B9" s="183"/>
       <c r="C9" s="41" t="s">
         <v>61</v>
       </c>
@@ -5142,7 +5216,7 @@
         <v>4.6511627906976744E-2</v>
       </c>
       <c r="U9" s="35"/>
-      <c r="V9" s="180"/>
+      <c r="V9" s="183"/>
       <c r="W9" s="41" t="s">
         <v>62</v>
       </c>
@@ -5228,7 +5302,7 @@
       <c r="BG9" s="35"/>
       <c r="BH9" s="51"/>
       <c r="BI9" s="35"/>
-      <c r="BJ9" s="188"/>
+      <c r="BJ9" s="179"/>
       <c r="BK9" s="41">
         <v>202</v>
       </c>
@@ -5297,7 +5371,7 @@
     </row>
     <row r="10" spans="1:80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35"/>
-      <c r="B10" s="180"/>
+      <c r="B10" s="183"/>
       <c r="C10" s="41" t="s">
         <v>63</v>
       </c>
@@ -5364,7 +5438,7 @@
         <v>2.3255813953488372E-2</v>
       </c>
       <c r="U10" s="35"/>
-      <c r="V10" s="180"/>
+      <c r="V10" s="183"/>
       <c r="W10" s="41" t="s">
         <v>64</v>
       </c>
@@ -5450,7 +5524,7 @@
       <c r="BG10" s="35"/>
       <c r="BH10" s="51"/>
       <c r="BI10" s="35"/>
-      <c r="BJ10" s="188"/>
+      <c r="BJ10" s="179"/>
       <c r="BK10" s="41">
         <v>207</v>
       </c>
@@ -5519,7 +5593,7 @@
     </row>
     <row r="11" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
-      <c r="B11" s="180"/>
+      <c r="B11" s="183"/>
       <c r="C11" s="41" t="s">
         <v>65</v>
       </c>
@@ -5586,7 +5660,7 @@
         <v>9.3023255813953487E-2</v>
       </c>
       <c r="U11" s="35"/>
-      <c r="V11" s="180"/>
+      <c r="V11" s="183"/>
       <c r="W11" s="41" t="s">
         <v>66</v>
       </c>
@@ -5672,7 +5746,7 @@
       <c r="BG11" s="35"/>
       <c r="BH11" s="51"/>
       <c r="BI11" s="35"/>
-      <c r="BJ11" s="188"/>
+      <c r="BJ11" s="179"/>
       <c r="BK11" s="41">
         <v>208</v>
       </c>
@@ -5741,7 +5815,7 @@
     </row>
     <row r="12" spans="1:80" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35"/>
-      <c r="B12" s="180"/>
+      <c r="B12" s="183"/>
       <c r="C12" s="41" t="s">
         <v>67</v>
       </c>
@@ -5808,7 +5882,7 @@
         <v>2.3255813953488372E-2</v>
       </c>
       <c r="U12" s="35"/>
-      <c r="V12" s="181"/>
+      <c r="V12" s="184"/>
       <c r="W12" s="44" t="s">
         <v>68</v>
       </c>
@@ -5894,7 +5968,7 @@
       <c r="BG12" s="35"/>
       <c r="BH12" s="51"/>
       <c r="BI12" s="35"/>
-      <c r="BJ12" s="188"/>
+      <c r="BJ12" s="179"/>
       <c r="BK12" s="41">
         <v>210</v>
       </c>
@@ -5963,7 +6037,7 @@
     </row>
     <row r="13" spans="1:80" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35"/>
-      <c r="B13" s="180"/>
+      <c r="B13" s="183"/>
       <c r="C13" s="41" t="s">
         <v>69</v>
       </c>
@@ -6119,7 +6193,7 @@
       <c r="BG13" s="35"/>
       <c r="BH13" s="51"/>
       <c r="BI13" s="35"/>
-      <c r="BJ13" s="189"/>
+      <c r="BJ13" s="180"/>
       <c r="BK13" s="44" t="s">
         <v>70</v>
       </c>
@@ -6188,7 +6262,7 @@
     </row>
     <row r="14" spans="1:80" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35"/>
-      <c r="B14" s="180"/>
+      <c r="B14" s="183"/>
       <c r="C14" s="41" t="s">
         <v>71</v>
       </c>
@@ -6366,7 +6440,7 @@
     </row>
     <row r="15" spans="1:80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35"/>
-      <c r="B15" s="180"/>
+      <c r="B15" s="183"/>
       <c r="C15" s="41" t="s">
         <v>72</v>
       </c>
@@ -6494,7 +6568,7 @@
     </row>
     <row r="16" spans="1:80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35"/>
-      <c r="B16" s="180"/>
+      <c r="B16" s="183"/>
       <c r="C16" s="41" t="s">
         <v>73</v>
       </c>
@@ -6622,7 +6696,7 @@
     </row>
     <row r="17" spans="1:79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
-      <c r="B17" s="180"/>
+      <c r="B17" s="183"/>
       <c r="C17" s="41" t="s">
         <v>74</v>
       </c>
@@ -6750,7 +6824,7 @@
     </row>
     <row r="18" spans="1:79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="35"/>
-      <c r="B18" s="180"/>
+      <c r="B18" s="183"/>
       <c r="C18" s="41" t="s">
         <v>75</v>
       </c>
@@ -6878,7 +6952,7 @@
     </row>
     <row r="19" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
-      <c r="B19" s="180"/>
+      <c r="B19" s="183"/>
       <c r="C19" s="41" t="s">
         <v>76</v>
       </c>
@@ -7006,7 +7080,7 @@
     </row>
     <row r="20" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
-      <c r="B20" s="180"/>
+      <c r="B20" s="183"/>
       <c r="C20" s="41" t="s">
         <v>77</v>
       </c>
@@ -7134,7 +7208,7 @@
     </row>
     <row r="21" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
-      <c r="B21" s="180"/>
+      <c r="B21" s="183"/>
       <c r="C21" s="41" t="s">
         <v>78</v>
       </c>
@@ -7262,7 +7336,7 @@
     </row>
     <row r="22" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
-      <c r="B22" s="180"/>
+      <c r="B22" s="183"/>
       <c r="C22" s="41" t="s">
         <v>79</v>
       </c>
@@ -7390,7 +7464,7 @@
     </row>
     <row r="23" spans="1:79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="35"/>
-      <c r="B23" s="180"/>
+      <c r="B23" s="183"/>
       <c r="C23" s="41" t="s">
         <v>80</v>
       </c>
@@ -7518,7 +7592,7 @@
     </row>
     <row r="24" spans="1:79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35"/>
-      <c r="B24" s="180"/>
+      <c r="B24" s="183"/>
       <c r="C24" s="41" t="s">
         <v>81</v>
       </c>
@@ -7646,7 +7720,7 @@
     </row>
     <row r="25" spans="1:79" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="35"/>
-      <c r="B25" s="181"/>
+      <c r="B25" s="184"/>
       <c r="C25" s="44" t="s">
         <v>82</v>
       </c>
@@ -7904,6 +7978,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B4:B25"/>
+    <mergeCell ref="V4:V12"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BL2:BN2"/>
+    <mergeCell ref="BU2:BW2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="X2:Z2"/>
     <mergeCell ref="CA2:CB2"/>
     <mergeCell ref="BJ4:BJ13"/>
     <mergeCell ref="AP4:AP7"/>
@@ -7912,26 +8006,6 @@
     <mergeCell ref="BO2:BQ2"/>
     <mergeCell ref="BR2:BT2"/>
     <mergeCell ref="BX2:BZ2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BL2:BN2"/>
-    <mergeCell ref="BU2:BW2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BD2:BF2"/>
-    <mergeCell ref="B4:B25"/>
-    <mergeCell ref="V4:V12"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7980,76 +8054,76 @@
   </cols>
   <sheetData>
     <row r="3" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="N3" s="190" t="s">
+      <c r="N3" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="190"/>
-      <c r="P3" s="190"/>
-      <c r="R3" s="190" t="s">
+      <c r="O3" s="191"/>
+      <c r="P3" s="191"/>
+      <c r="R3" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="190"/>
-      <c r="T3" s="190"/>
+      <c r="S3" s="191"/>
+      <c r="T3" s="191"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="190" t="s">
+      <c r="V3" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
-      <c r="AA3" s="190" t="s">
+      <c r="W3" s="191"/>
+      <c r="X3" s="191"/>
+      <c r="Y3" s="191"/>
+      <c r="AA3" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="190"/>
-      <c r="AC3" s="190"/>
-      <c r="AE3" s="190" t="s">
+      <c r="AB3" s="191"/>
+      <c r="AC3" s="191"/>
+      <c r="AE3" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="AF3" s="190"/>
-      <c r="AG3" s="190"/>
-      <c r="AH3" s="190"/>
-      <c r="AJ3" s="190" t="s">
+      <c r="AF3" s="191"/>
+      <c r="AG3" s="191"/>
+      <c r="AH3" s="191"/>
+      <c r="AJ3" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="190"/>
-      <c r="AL3" s="190"/>
-      <c r="AM3" s="190"/>
+      <c r="AK3" s="191"/>
+      <c r="AL3" s="191"/>
+      <c r="AM3" s="191"/>
     </row>
     <row r="4" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="N4" s="190" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="190"/>
-      <c r="P4" s="190"/>
-      <c r="R4" s="190" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="190"/>
-      <c r="T4" s="190"/>
+      <c r="N4" s="191" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="191"/>
+      <c r="P4" s="191"/>
+      <c r="R4" s="191" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="191"/>
+      <c r="T4" s="191"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="190" t="s">
-        <v>0</v>
-      </c>
-      <c r="W4" s="190"/>
-      <c r="X4" s="190"/>
-      <c r="Y4" s="190"/>
-      <c r="AA4" s="190" t="s">
+      <c r="V4" s="191" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="191"/>
+      <c r="X4" s="191"/>
+      <c r="Y4" s="191"/>
+      <c r="AA4" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="190"/>
-      <c r="AC4" s="190"/>
-      <c r="AE4" s="190" t="s">
+      <c r="AB4" s="191"/>
+      <c r="AC4" s="191"/>
+      <c r="AE4" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="AF4" s="190"/>
-      <c r="AG4" s="190"/>
-      <c r="AH4" s="190"/>
-      <c r="AJ4" s="190" t="s">
+      <c r="AF4" s="191"/>
+      <c r="AG4" s="191"/>
+      <c r="AH4" s="191"/>
+      <c r="AJ4" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="AK4" s="190"/>
-      <c r="AL4" s="190"/>
-      <c r="AM4" s="190"/>
+      <c r="AK4" s="191"/>
+      <c r="AL4" s="191"/>
+      <c r="AM4" s="191"/>
     </row>
     <row r="5" spans="7:39" x14ac:dyDescent="0.3">
       <c r="N5" s="3" t="s">
@@ -8075,10 +8149,10 @@
         <v>1</v>
       </c>
       <c r="U5" s="9"/>
-      <c r="V5" s="191" t="s">
+      <c r="V5" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="192"/>
+      <c r="W5" s="189"/>
       <c r="X5" s="5">
         <f>$O$5</f>
         <v>86</v>
@@ -8098,10 +8172,10 @@
         <f>AB5/$O$5</f>
         <v>1</v>
       </c>
-      <c r="AE5" s="191" t="s">
+      <c r="AE5" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="AF5" s="192"/>
+      <c r="AF5" s="189"/>
       <c r="AG5" s="5">
         <f>$O$5</f>
         <v>86</v>
@@ -8110,10 +8184,10 @@
         <f>AG5/$O$5</f>
         <v>1</v>
       </c>
-      <c r="AJ5" s="191" t="s">
+      <c r="AJ5" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="AK5" s="192"/>
+      <c r="AK5" s="189"/>
       <c r="AL5" s="5">
         <f>$O$5</f>
         <v>86</v>
@@ -8133,35 +8207,35 @@
       <c r="P6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="191" t="s">
+      <c r="R6" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="196"/>
-      <c r="T6" s="192"/>
+      <c r="S6" s="188"/>
+      <c r="T6" s="189"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="197" t="s">
+      <c r="V6" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="197"/>
-      <c r="X6" s="197"/>
-      <c r="Y6" s="197"/>
-      <c r="AA6" s="191" t="s">
+      <c r="W6" s="190"/>
+      <c r="X6" s="190"/>
+      <c r="Y6" s="190"/>
+      <c r="AA6" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="AB6" s="196"/>
-      <c r="AC6" s="192"/>
-      <c r="AE6" s="191" t="s">
+      <c r="AB6" s="188"/>
+      <c r="AC6" s="189"/>
+      <c r="AE6" s="187" t="s">
         <v>38</v>
       </c>
-      <c r="AF6" s="196"/>
-      <c r="AG6" s="196"/>
-      <c r="AH6" s="192"/>
-      <c r="AJ6" s="193" t="s">
+      <c r="AF6" s="188"/>
+      <c r="AG6" s="188"/>
+      <c r="AH6" s="189"/>
+      <c r="AJ6" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="AK6" s="194"/>
-      <c r="AL6" s="194"/>
-      <c r="AM6" s="195"/>
+      <c r="AK6" s="193"/>
+      <c r="AL6" s="193"/>
+      <c r="AM6" s="194"/>
     </row>
     <row r="7" spans="7:39" x14ac:dyDescent="0.3">
       <c r="N7" s="3" t="s">
@@ -8338,11 +8412,11 @@
         <f t="shared" si="0"/>
         <v>0.11627906976744186</v>
       </c>
-      <c r="AA9" s="191" t="s">
+      <c r="AA9" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="AB9" s="196"/>
-      <c r="AC9" s="192"/>
+      <c r="AB9" s="188"/>
+      <c r="AC9" s="189"/>
       <c r="AE9" s="3">
         <v>3</v>
       </c>
@@ -8549,10 +8623,10 @@
         <f t="shared" si="2"/>
         <v>0.11627906976744186</v>
       </c>
-      <c r="AJ12" s="190" t="s">
+      <c r="AJ12" s="191" t="s">
         <v>35</v>
       </c>
-      <c r="AK12" s="190"/>
+      <c r="AK12" s="191"/>
       <c r="AL12" s="8">
         <f>SUM(AL8:AL11)</f>
         <v>4</v>
@@ -8590,10 +8664,10 @@
         <f t="shared" si="0"/>
         <v>0.13953488372093023</v>
       </c>
-      <c r="AE13" s="190" t="s">
+      <c r="AE13" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="AF13" s="190"/>
+      <c r="AF13" s="191"/>
       <c r="AG13" s="8">
         <f>SUM(AG8:AG12)</f>
         <v>60</v>
@@ -8602,10 +8676,10 @@
         <f>SUM(AH8:AH12)</f>
         <v>0.69767441860465118</v>
       </c>
-      <c r="AJ13" s="190" t="s">
+      <c r="AJ13" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="AK13" s="190"/>
+      <c r="AK13" s="191"/>
       <c r="AL13" s="8">
         <f>AVERAGE(AL8:AL11)</f>
         <v>1</v>
@@ -8643,10 +8717,10 @@
         <f t="shared" si="0"/>
         <v>9.3023255813953487E-2</v>
       </c>
-      <c r="AE14" s="190" t="s">
+      <c r="AE14" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="AF14" s="190"/>
+      <c r="AF14" s="191"/>
       <c r="AG14" s="8">
         <f>AVERAGE(AG8:AG12)</f>
         <v>12</v>
@@ -8749,10 +8823,10 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="L20" s="2"/>
-      <c r="V20" s="191" t="s">
+      <c r="V20" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="W20" s="192"/>
+      <c r="W20" s="189"/>
       <c r="X20" s="8">
         <f>SUM(X8:X19)</f>
         <v>86</v>
@@ -8766,10 +8840,10 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="L21" s="2"/>
-      <c r="V21" s="191" t="s">
+      <c r="V21" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="W21" s="192"/>
+      <c r="W21" s="189"/>
       <c r="X21" s="8">
         <f>AVERAGE(X8:X19)</f>
         <v>7.166666666666667</v>
@@ -8890,15 +8964,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="AJ6:AM6"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="AE13:AF13"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AJ3:AM3"/>
@@ -8911,12 +8982,15 @@
     <mergeCell ref="AE6:AH6"/>
     <mergeCell ref="AA6:AC6"/>
     <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="AJ6:AM6"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="V5:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
